--- a/外皮計算テストケース表.xlsx
+++ b/外皮計算テストケース表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A467A8F-8AF8-49AD-8DE5-8CBC4A868284}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0120ED2-0861-46B5-B264-6DF6F8B9E7DE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="熱負荷計算V4csv" sheetId="7" r:id="rId8"/>
     <sheet name="熱負荷計算V5csv" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4110" uniqueCount="537">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -3327,42 +3327,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>window[i]name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]etaCooling</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]etaHeating</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]eta</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]y1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]y2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]z</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]direction</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>開口部の透明部位</t>
     <rPh sb="0" eb="3">
       <t>カイコウブ</t>
@@ -3376,22 +3340,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>heatbridge[i]L</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>heatbridge[i]psi</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>heatbridge[i]direction1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>heatbridge[i]direction2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>分類「部位情報」を削除</t>
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
@@ -3412,34 +3360,6 @@
     <rPh sb="7" eb="9">
       <t>ブイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>door[i]name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>door[i]U</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>door[i]y2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>door[i]z</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>door[i]y1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>door[i]direction</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>door[i]A</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4155,18 +4075,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>window[i]frame</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]glass</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]Uw</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>窓の熱貫流率</t>
     <rPh sb="0" eb="1">
       <t>マド</t>
@@ -4235,10 +4143,6 @@
     <rPh sb="6" eb="8">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]shade</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4429,14 +4333,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>window[i]type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]IsInputEtaValue</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1:一重窓
 2:二重窓</t>
     <rPh sb="2" eb="3">
@@ -4521,22 +4417,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>window[i]eta_inside</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]frame_inside</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]glass_inside</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]shade_inside</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日射熱取得率（室外側）</t>
     <rPh sb="0" eb="2">
       <t>ニッシャ</t>
@@ -4583,22 +4463,6 @@
     <rPh sb="6" eb="8">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]eta_outside</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]frame_outside</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]glass_outside</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]shade_outside</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4712,18 +4576,6 @@
     <rPh sb="10" eb="12">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>window[i]IsSunshadeInput</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>door[i]IsSunshadeInput</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>heatbridge[i]structure</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4991,14 +4843,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>EarthPerimeterHeatbridge_length</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EarthPerimeterHeatbridge_psi</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>壁体仕様入力方法（木造）</t>
     <rPh sb="0" eb="2">
       <t>ヘキタイ</t>
@@ -5339,6 +5183,285 @@
   </si>
   <si>
     <t>Walls[i] Parts[j] Layers[k] Spech</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Direction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i]  IsInputEtaValue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] EtaCooling</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] EtaHeating</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Type_window</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Eta</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Type_frame</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Type_glass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Type_shade</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Eta_inside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Type_frame_inside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Type_glass_inside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Type_shade_inside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Eta_outside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Type_glass_outside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Type_frame_outside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Type_shade_outside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Uw</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] IsSunshadeInput</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] y2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] y1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Doors[i] Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Doors[i] Direction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Doors[i] Area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Doors[i] U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Doors[i] IsSunshadeInput</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Doors[i] y2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Doors[i] z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Doors[i] y1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Heatbridges[i] Structure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Heatbridges[i] Psi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Heatbridges[i] Length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Heatbridges[i] Direction1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Heatbridges[i] Direction2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EarthfloorPerimeters[i] Length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EarthfloorPerimeters[i] Psi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シート「熱負荷計算LV2csv」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>keyを変更（複数存在する項目はkeyを複数形にする、各keyの先頭文字を大文字にする）</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>フクスウケイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>オオモジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] IsSunshadeInput</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] y2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] y1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「開口部以外の不透明部位」に外部日除けの入力項目を追加</t>
+    <rPh sb="16" eb="18">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土間床の種類</t>
+    <rPh sb="0" eb="2">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EarthfloorPerimeters[i] Type_earthfloor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:一般（玄関等を除く）
+2:玄関等</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「土間床等の外周部の線熱橋」に項目「土間床の種類」を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5498,7 +5621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5773,23 +5896,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5806,22 +5938,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5836,14 +5956,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5854,11 +5971,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6145,18 +6274,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536BF8A1-E6C3-4235-B285-32136AE77F7C}">
-  <dimension ref="A1:C64"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="131.0625" customWidth="1"/>
+    <col min="3" max="3" width="131.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6222,7 +6352,7 @@
         <v>276</v>
       </c>
       <c r="C6" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6255,7 +6385,7 @@
         <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6266,7 +6396,7 @@
         <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6277,7 +6407,7 @@
         <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6288,7 +6418,7 @@
         <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6299,7 +6429,7 @@
         <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6307,10 +6437,10 @@
         <v>43185</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C14" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6318,10 +6448,10 @@
         <v>43185</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6329,10 +6459,10 @@
         <v>43185</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C16" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6340,10 +6470,10 @@
         <v>43185</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C17" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6354,7 +6484,7 @@
         <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6365,7 +6495,7 @@
         <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6376,7 +6506,7 @@
         <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6387,7 +6517,7 @@
         <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6398,7 +6528,7 @@
         <v>276</v>
       </c>
       <c r="C22" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6409,7 +6539,7 @@
         <v>276</v>
       </c>
       <c r="C23" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6420,7 +6550,7 @@
         <v>276</v>
       </c>
       <c r="C24" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6431,7 +6561,7 @@
         <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6442,7 +6572,7 @@
         <v>276</v>
       </c>
       <c r="C26" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6453,7 +6583,7 @@
         <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6464,7 +6594,7 @@
         <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6475,7 +6605,7 @@
         <v>276</v>
       </c>
       <c r="C29" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6486,7 +6616,7 @@
         <v>276</v>
       </c>
       <c r="C30" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6497,7 +6627,7 @@
         <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6508,7 +6638,7 @@
         <v>276</v>
       </c>
       <c r="C32" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6519,7 +6649,7 @@
         <v>276</v>
       </c>
       <c r="C33" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6530,7 +6660,7 @@
         <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6541,7 +6671,7 @@
         <v>276</v>
       </c>
       <c r="C35" s="81" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6552,7 +6682,7 @@
         <v>276</v>
       </c>
       <c r="C36" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6563,7 +6693,7 @@
         <v>276</v>
       </c>
       <c r="C37" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6574,7 +6704,7 @@
         <v>276</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6585,7 +6715,7 @@
         <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6596,7 +6726,7 @@
         <v>276</v>
       </c>
       <c r="C40" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6607,7 +6737,7 @@
         <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6618,7 +6748,7 @@
         <v>276</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6629,7 +6759,7 @@
         <v>276</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6640,7 +6770,7 @@
         <v>276</v>
       </c>
       <c r="C44" s="81" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6651,7 +6781,7 @@
         <v>276</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6662,7 +6792,7 @@
         <v>276</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6673,7 +6803,7 @@
         <v>276</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6684,7 +6814,7 @@
         <v>276</v>
       </c>
       <c r="C48" s="82" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6695,7 +6825,7 @@
         <v>276</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6703,7 +6833,7 @@
         <v>43203</v>
       </c>
       <c r="B50" s="76" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C50" s="82" t="s">
         <v>277</v>
@@ -6728,7 +6858,7 @@
         <v>276</v>
       </c>
       <c r="C52" s="82" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6739,7 +6869,7 @@
         <v>276</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6750,7 +6880,7 @@
         <v>276</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -6761,7 +6891,7 @@
         <v>276</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6772,7 +6902,7 @@
         <v>276</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6783,7 +6913,7 @@
         <v>276</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -6794,7 +6924,7 @@
         <v>276</v>
       </c>
       <c r="C58" s="82" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6805,7 +6935,7 @@
         <v>276</v>
       </c>
       <c r="C59" s="82" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6816,7 +6946,7 @@
         <v>276</v>
       </c>
       <c r="C60" s="82" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6827,7 +6957,7 @@
         <v>276</v>
       </c>
       <c r="C61" s="82" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6838,7 +6968,7 @@
         <v>276</v>
       </c>
       <c r="C62" s="82" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -6849,7 +6979,7 @@
         <v>276</v>
       </c>
       <c r="C63" s="82" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -6860,7 +6990,40 @@
         <v>276</v>
       </c>
       <c r="C64" s="81" t="s">
-        <v>501</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="76">
+        <v>43257</v>
+      </c>
+      <c r="B65" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="C65" s="82" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="76">
+        <v>43257</v>
+      </c>
+      <c r="B66" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="C66" s="82" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="76">
+        <v>43257</v>
+      </c>
+      <c r="B67" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="C67" s="82" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -6879,7 +7042,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="72"/>
   </cols>
@@ -6944,21 +7107,21 @@
       <selection pane="bottomRight" activeCell="D127" sqref="D127:D141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="14.0625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.8125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.9375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.8125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.8125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.9375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.0625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.5625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="19" width="9" style="33"/>
     <col min="20" max="23" width="9" style="27"/>
     <col min="24" max="16384" width="9" style="2"/>
@@ -7035,7 +7198,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="106" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7082,12 +7245,12 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="104"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="109" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="109"/>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="98" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="109"/>
@@ -7129,24 +7292,24 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="104"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="110"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
       <c r="Q5" s="52"/>
@@ -7154,24 +7317,24 @@
       <c r="S5" s="52"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="104"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="110"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="115"/>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
@@ -7179,24 +7342,24 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="104"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="110"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -7204,24 +7367,24 @@
       <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="104"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="110"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="115"/>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
@@ -7229,24 +7392,24 @@
       <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="104"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="110"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="115"/>
       <c r="F9" s="1">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
@@ -7254,24 +7417,24 @@
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="104"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="110"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="115"/>
       <c r="F10" s="1">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
@@ -7279,24 +7442,24 @@
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="104"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="111"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
@@ -7304,7 +7467,7 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="104"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -7351,7 +7514,7 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="104"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
@@ -7398,7 +7561,7 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="104"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -7445,35 +7608,35 @@
       </c>
     </row>
     <row r="15" spans="1:23" s="44" customFormat="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="100" t="s">
+      <c r="A15" s="107"/>
+      <c r="B15" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="106"/>
+      <c r="D15" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="103"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="46">
         <v>1</v>
       </c>
       <c r="G15" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="98">
         <v>2</v>
       </c>
-      <c r="I15" s="94">
-        <v>1</v>
-      </c>
-      <c r="J15" s="94">
+      <c r="I15" s="98">
+        <v>1</v>
+      </c>
+      <c r="J15" s="98">
         <v>2</v>
       </c>
-      <c r="K15" s="94" t="s">
+      <c r="K15" s="98" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="109"/>
-      <c r="M15" s="94" t="s">
+      <c r="M15" s="98" t="s">
         <v>38</v>
       </c>
       <c r="N15" s="109"/>
@@ -7494,24 +7657,24 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="44" customFormat="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="105"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="46">
         <v>2</v>
       </c>
       <c r="G16" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="111"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="110"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
@@ -7519,7 +7682,7 @@
       <c r="S16" s="53"/>
     </row>
     <row r="17" spans="1:23" s="44" customFormat="1">
-      <c r="A17" s="104"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="43" t="s">
         <v>51</v>
       </c>
@@ -7564,7 +7727,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="23" customFormat="1">
-      <c r="A18" s="104"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="43" t="s">
         <v>51</v>
       </c>
@@ -7613,7 +7776,7 @@
       <c r="W18" s="27"/>
     </row>
     <row r="19" spans="1:23" s="58" customFormat="1">
-      <c r="A19" s="104"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="62" t="s">
         <v>51</v>
       </c>
@@ -7658,15 +7821,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" s="58" customFormat="1">
-      <c r="A20" s="104"/>
-      <c r="B20" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="100" t="s">
+      <c r="A20" s="107"/>
+      <c r="B20" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="106"/>
+      <c r="D20" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="100" t="s">
+      <c r="E20" s="103" t="s">
         <v>265</v>
       </c>
       <c r="F20" s="69">
@@ -7675,61 +7838,61 @@
       <c r="G20" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94">
-        <v>1</v>
-      </c>
-      <c r="J20" s="94">
+      <c r="H20" s="98"/>
+      <c r="I20" s="98">
+        <v>1</v>
+      </c>
+      <c r="J20" s="98">
         <v>2</v>
       </c>
-      <c r="K20" s="94" t="s">
+      <c r="K20" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="97"/>
-      <c r="M20" s="94" t="s">
+      <c r="L20" s="96"/>
+      <c r="M20" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="94"/>
-      <c r="O20" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="121" t="s">
+      <c r="N20" s="98"/>
+      <c r="O20" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="101" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="58" customFormat="1">
-      <c r="A21" s="104"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
       <c r="F21" s="69">
         <v>2</v>
       </c>
       <c r="G21" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="122"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="109" t="s">
@@ -7771,36 +7934,36 @@
       </c>
     </row>
     <row r="23" spans="1:23" s="44" customFormat="1">
-      <c r="A23" s="110"/>
-      <c r="B23" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="100" t="s">
+      <c r="A23" s="115"/>
+      <c r="B23" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="106"/>
+      <c r="D23" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="E23" s="106"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="46">
         <v>1</v>
       </c>
       <c r="G23" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="H23" s="112"/>
-      <c r="I23" s="94">
-        <v>1</v>
-      </c>
-      <c r="J23" s="94">
+      <c r="H23" s="111"/>
+      <c r="I23" s="98">
+        <v>1</v>
+      </c>
+      <c r="J23" s="98">
         <v>6</v>
       </c>
-      <c r="K23" s="100" t="s">
+      <c r="K23" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="112"/>
-      <c r="M23" s="100" t="s">
+      <c r="L23" s="111"/>
+      <c r="M23" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="103"/>
+      <c r="N23" s="106"/>
       <c r="O23" s="51" t="s">
         <v>51</v>
       </c>
@@ -7819,24 +7982,24 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:23" s="44" customFormat="1">
-      <c r="A24" s="110"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="107"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="46">
         <v>2</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="113"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="104"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="107"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
@@ -7845,24 +8008,24 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:23" s="44" customFormat="1">
-      <c r="A25" s="110"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="107"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="46">
         <v>3</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="113"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="104"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="107"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="52"/>
@@ -7871,24 +8034,24 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:23" s="44" customFormat="1">
-      <c r="A26" s="110"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="107"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="46">
         <v>4</v>
       </c>
       <c r="G26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="113"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="104"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="107"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="52"/>
@@ -7899,24 +8062,24 @@
       <c r="V26" s="49"/>
     </row>
     <row r="27" spans="1:23" s="44" customFormat="1">
-      <c r="A27" s="110"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="107"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="46">
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="113"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="104"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="107"/>
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
@@ -7927,24 +8090,24 @@
       <c r="V27" s="49"/>
     </row>
     <row r="28" spans="1:23" s="44" customFormat="1">
-      <c r="A28" s="110"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="108"/>
+      <c r="A28" s="115"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="46">
         <v>6</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="114"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="105"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="114"/>
       <c r="O28" s="53"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
@@ -7955,7 +8118,7 @@
       <c r="V28" s="49"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="110"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
@@ -7995,7 +8158,7 @@
       <c r="V29" s="49"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="110"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
@@ -8043,7 +8206,7 @@
       <c r="V30" s="49"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="110"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
@@ -8091,7 +8254,7 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="110"/>
+      <c r="A32" s="115"/>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -8137,7 +8300,7 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="110"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
@@ -8187,7 +8350,7 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="110"/>
+      <c r="A34" s="115"/>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
@@ -8237,7 +8400,7 @@
       <c r="V34" s="49"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="110"/>
+      <c r="A35" s="115"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
@@ -8285,8 +8448,8 @@
       <c r="T35" s="19"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A36" s="110"/>
+    <row r="36" spans="1:22" s="27" customFormat="1" ht="19.5">
+      <c r="A36" s="115"/>
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
@@ -8333,8 +8496,8 @@
       </c>
       <c r="T36" s="19"/>
     </row>
-    <row r="37" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A37" s="110"/>
+    <row r="37" spans="1:22" s="27" customFormat="1" ht="19.5">
+      <c r="A37" s="115"/>
       <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
@@ -8379,8 +8542,8 @@
       </c>
       <c r="T37" s="19"/>
     </row>
-    <row r="38" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A38" s="110"/>
+    <row r="38" spans="1:22" s="27" customFormat="1" ht="19.5">
+      <c r="A38" s="115"/>
       <c r="B38" s="10" t="s">
         <v>51</v>
       </c>
@@ -8426,38 +8589,38 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:22" s="27" customFormat="1">
-      <c r="A39" s="110"/>
-      <c r="B39" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94" t="s">
+      <c r="A39" s="115"/>
+      <c r="B39" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="94"/>
+      <c r="E39" s="98"/>
       <c r="F39" s="10">
         <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H39" s="94">
-        <v>1</v>
-      </c>
-      <c r="I39" s="94">
-        <v>1</v>
-      </c>
-      <c r="J39" s="94">
+      <c r="H39" s="98">
+        <v>1</v>
+      </c>
+      <c r="I39" s="98">
+        <v>1</v>
+      </c>
+      <c r="J39" s="98">
         <v>3</v>
       </c>
-      <c r="K39" s="94" t="s">
+      <c r="K39" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="L39" s="97"/>
-      <c r="M39" s="94" t="s">
+      <c r="L39" s="96"/>
+      <c r="M39" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="N39" s="94"/>
+      <c r="N39" s="98"/>
       <c r="O39" s="51" t="s">
         <v>169</v>
       </c>
@@ -8475,24 +8638,24 @@
       </c>
     </row>
     <row r="40" spans="1:22" s="27" customFormat="1">
-      <c r="A40" s="110"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
       <c r="F40" s="10">
         <v>2</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
       <c r="O40" s="52"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="52"/>
@@ -8500,24 +8663,24 @@
       <c r="S40" s="52"/>
     </row>
     <row r="41" spans="1:22" s="58" customFormat="1">
-      <c r="A41" s="110"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
       <c r="F41" s="61">
         <v>3</v>
       </c>
       <c r="G41" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -8525,24 +8688,24 @@
       <c r="S41" s="59"/>
     </row>
     <row r="42" spans="1:22" s="27" customFormat="1">
-      <c r="A42" s="110"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
       <c r="F42" s="10">
         <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
       <c r="Q42" s="53"/>
@@ -8550,15 +8713,15 @@
       <c r="S42" s="53"/>
     </row>
     <row r="43" spans="1:22" s="27" customFormat="1">
-      <c r="A43" s="110"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="94" t="s">
+      <c r="A43" s="115"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="94" t="s">
+      <c r="E43" s="98" t="s">
         <v>215</v>
       </c>
       <c r="F43" s="10">
@@ -8567,23 +8730,23 @@
       <c r="G43" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H43" s="94">
-        <v>1</v>
-      </c>
-      <c r="I43" s="94">
-        <v>1</v>
-      </c>
-      <c r="J43" s="94">
+      <c r="H43" s="98">
+        <v>1</v>
+      </c>
+      <c r="I43" s="98">
+        <v>1</v>
+      </c>
+      <c r="J43" s="98">
         <v>3</v>
       </c>
-      <c r="K43" s="94" t="s">
+      <c r="K43" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="97"/>
-      <c r="M43" s="94" t="s">
+      <c r="L43" s="96"/>
+      <c r="M43" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="N43" s="94"/>
+      <c r="N43" s="98"/>
       <c r="O43" s="51" t="s">
         <v>169</v>
       </c>
@@ -8601,24 +8764,24 @@
       </c>
     </row>
     <row r="44" spans="1:22" s="27" customFormat="1">
-      <c r="A44" s="110"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
       <c r="F44" s="10">
         <v>2</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="52"/>
@@ -8626,24 +8789,24 @@
       <c r="S44" s="52"/>
     </row>
     <row r="45" spans="1:22" s="27" customFormat="1">
-      <c r="A45" s="110"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
       <c r="F45" s="10">
         <v>3</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
       <c r="O45" s="53"/>
       <c r="P45" s="53"/>
       <c r="Q45" s="53"/>
@@ -8651,7 +8814,7 @@
       <c r="S45" s="53"/>
     </row>
     <row r="46" spans="1:22" s="27" customFormat="1">
-      <c r="A46" s="110"/>
+      <c r="A46" s="115"/>
       <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
@@ -8697,8 +8860,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A47" s="110"/>
+    <row r="47" spans="1:22" s="27" customFormat="1" ht="19.5">
+      <c r="A47" s="115"/>
       <c r="B47" s="10" t="s">
         <v>51</v>
       </c>
@@ -8745,7 +8908,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" s="27" customFormat="1">
-      <c r="A48" s="110"/>
+      <c r="A48" s="115"/>
       <c r="B48" s="10" t="s">
         <v>51</v>
       </c>
@@ -8792,7 +8955,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" s="27" customFormat="1">
-      <c r="A49" s="110"/>
+      <c r="A49" s="115"/>
       <c r="B49" s="10" t="s">
         <v>51</v>
       </c>
@@ -8838,8 +9001,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="27" customFormat="1" ht="18.75">
-      <c r="A50" s="110"/>
+    <row r="50" spans="1:23" s="27" customFormat="1" ht="19.5">
+      <c r="A50" s="115"/>
       <c r="B50" s="10" t="s">
         <v>51</v>
       </c>
@@ -8925,7 +9088,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" s="16" customFormat="1">
-      <c r="A52" s="110"/>
+      <c r="A52" s="115"/>
       <c r="B52" s="17" t="s">
         <v>51</v>
       </c>
@@ -8978,7 +9141,7 @@
       <c r="W52" s="27"/>
     </row>
     <row r="53" spans="1:23" s="16" customFormat="1">
-      <c r="A53" s="110"/>
+      <c r="A53" s="115"/>
       <c r="B53" s="17" t="s">
         <v>51</v>
       </c>
@@ -9033,7 +9196,7 @@
       <c r="W53" s="27"/>
     </row>
     <row r="54" spans="1:23" s="16" customFormat="1">
-      <c r="A54" s="110"/>
+      <c r="A54" s="115"/>
       <c r="B54" s="17" t="s">
         <v>51</v>
       </c>
@@ -9088,7 +9251,7 @@
       <c r="W54" s="27"/>
     </row>
     <row r="55" spans="1:23">
-      <c r="A55" s="110"/>
+      <c r="A55" s="115"/>
       <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
@@ -9137,7 +9300,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" s="14" customFormat="1">
-      <c r="A56" s="110"/>
+      <c r="A56" s="115"/>
       <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
@@ -9192,7 +9355,7 @@
       <c r="W56" s="27"/>
     </row>
     <row r="57" spans="1:23" s="14" customFormat="1">
-      <c r="A57" s="110"/>
+      <c r="A57" s="115"/>
       <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
@@ -9247,7 +9410,7 @@
       <c r="W57" s="27"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="110"/>
+      <c r="A58" s="115"/>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
@@ -9296,7 +9459,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" s="23" customFormat="1">
-      <c r="A59" s="110"/>
+      <c r="A59" s="115"/>
       <c r="B59" s="10" t="s">
         <v>51</v>
       </c>
@@ -9351,7 +9514,7 @@
       <c r="W59" s="27"/>
     </row>
     <row r="60" spans="1:23" s="23" customFormat="1">
-      <c r="A60" s="110"/>
+      <c r="A60" s="115"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -9405,8 +9568,8 @@
       <c r="V60" s="27"/>
       <c r="W60" s="27"/>
     </row>
-    <row r="61" spans="1:23" ht="18.75">
-      <c r="A61" s="110"/>
+    <row r="61" spans="1:23" ht="19.5">
+      <c r="A61" s="115"/>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
@@ -9453,7 +9616,7 @@
       </c>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="110"/>
+      <c r="A62" s="115"/>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -9500,7 +9663,7 @@
       </c>
     </row>
     <row r="63" spans="1:23">
-      <c r="A63" s="110"/>
+      <c r="A63" s="115"/>
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
@@ -9546,8 +9709,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="18.75">
-      <c r="A64" s="111"/>
+    <row r="64" spans="1:23" ht="19.5">
+      <c r="A64" s="110"/>
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
@@ -9633,7 +9796,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" s="19" customFormat="1">
-      <c r="A66" s="110"/>
+      <c r="A66" s="115"/>
       <c r="B66" s="20" t="s">
         <v>51</v>
       </c>
@@ -9673,7 +9836,7 @@
       <c r="T66" s="27"/>
     </row>
     <row r="67" spans="1:23">
-      <c r="A67" s="110"/>
+      <c r="A67" s="115"/>
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
@@ -9722,7 +9885,7 @@
       </c>
     </row>
     <row r="68" spans="1:23">
-      <c r="A68" s="110"/>
+      <c r="A68" s="115"/>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
@@ -9771,7 +9934,7 @@
       </c>
     </row>
     <row r="69" spans="1:23">
-      <c r="A69" s="110"/>
+      <c r="A69" s="115"/>
       <c r="B69" s="1" t="s">
         <v>51</v>
       </c>
@@ -9820,7 +9983,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" s="16" customFormat="1">
-      <c r="A70" s="110"/>
+      <c r="A70" s="115"/>
       <c r="B70" s="10" t="s">
         <v>51</v>
       </c>
@@ -9873,7 +10036,7 @@
       <c r="W70" s="27"/>
     </row>
     <row r="71" spans="1:23" s="16" customFormat="1">
-      <c r="A71" s="110"/>
+      <c r="A71" s="115"/>
       <c r="B71" s="10" t="s">
         <v>51</v>
       </c>
@@ -9926,7 +10089,7 @@
       <c r="W71" s="27"/>
     </row>
     <row r="72" spans="1:23" s="19" customFormat="1">
-      <c r="A72" s="110"/>
+      <c r="A72" s="115"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
       </c>
@@ -9966,7 +10129,7 @@
       <c r="T72" s="27"/>
     </row>
     <row r="73" spans="1:23" s="19" customFormat="1">
-      <c r="A73" s="111"/>
+      <c r="A73" s="110"/>
       <c r="B73" s="20" t="s">
         <v>51</v>
       </c>
@@ -10006,14 +10169,14 @@
       <c r="T73" s="27"/>
     </row>
     <row r="74" spans="1:23">
-      <c r="A74" s="115" t="s">
+      <c r="A74" s="119" t="s">
         <v>133</v>
       </c>
       <c r="B74" s="109" t="s">
         <v>51</v>
       </c>
       <c r="C74" s="109"/>
-      <c r="D74" s="94" t="s">
+      <c r="D74" s="98" t="s">
         <v>137</v>
       </c>
       <c r="E74" s="109"/>
@@ -10026,17 +10189,17 @@
       <c r="H74" s="109">
         <v>1</v>
       </c>
-      <c r="I74" s="94">
-        <v>1</v>
-      </c>
-      <c r="J74" s="94">
+      <c r="I74" s="98">
+        <v>1</v>
+      </c>
+      <c r="J74" s="98">
         <v>4</v>
       </c>
       <c r="K74" s="109" t="s">
         <v>11</v>
       </c>
       <c r="L74" s="109"/>
-      <c r="M74" s="94" t="s">
+      <c r="M74" s="98" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="109"/>
@@ -10057,24 +10220,24 @@
       </c>
     </row>
     <row r="75" spans="1:23">
-      <c r="A75" s="110"/>
-      <c r="B75" s="110"/>
-      <c r="C75" s="110"/>
-      <c r="D75" s="95"/>
-      <c r="E75" s="110"/>
+      <c r="A75" s="115"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="115"/>
+      <c r="D75" s="100"/>
+      <c r="E75" s="115"/>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H75" s="110"/>
-      <c r="I75" s="95"/>
-      <c r="J75" s="95"/>
-      <c r="K75" s="110"/>
-      <c r="L75" s="110"/>
-      <c r="M75" s="95"/>
-      <c r="N75" s="110"/>
+      <c r="H75" s="115"/>
+      <c r="I75" s="100"/>
+      <c r="J75" s="100"/>
+      <c r="K75" s="115"/>
+      <c r="L75" s="115"/>
+      <c r="M75" s="100"/>
+      <c r="N75" s="115"/>
       <c r="O75" s="52"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
@@ -10082,24 +10245,24 @@
       <c r="S75" s="52"/>
     </row>
     <row r="76" spans="1:23" s="4" customFormat="1">
-      <c r="A76" s="110"/>
-      <c r="B76" s="110"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="95"/>
-      <c r="E76" s="110"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="115"/>
       <c r="F76" s="3">
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H76" s="110"/>
-      <c r="I76" s="95"/>
-      <c r="J76" s="95"/>
-      <c r="K76" s="110"/>
-      <c r="L76" s="110"/>
-      <c r="M76" s="95"/>
-      <c r="N76" s="110"/>
+      <c r="H76" s="115"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="100"/>
+      <c r="K76" s="115"/>
+      <c r="L76" s="115"/>
+      <c r="M76" s="100"/>
+      <c r="N76" s="115"/>
       <c r="O76" s="52"/>
       <c r="P76" s="52"/>
       <c r="Q76" s="52"/>
@@ -10111,24 +10274,24 @@
       <c r="W76" s="27"/>
     </row>
     <row r="77" spans="1:23">
-      <c r="A77" s="110"/>
-      <c r="B77" s="111"/>
-      <c r="C77" s="111"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="111"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="110"/>
       <c r="F77" s="10">
         <v>4</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H77" s="111"/>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="96"/>
-      <c r="N77" s="111"/>
+      <c r="H77" s="110"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="99"/>
+      <c r="K77" s="110"/>
+      <c r="L77" s="110"/>
+      <c r="M77" s="99"/>
+      <c r="N77" s="110"/>
       <c r="O77" s="53"/>
       <c r="P77" s="53"/>
       <c r="Q77" s="53"/>
@@ -10136,15 +10299,15 @@
       <c r="S77" s="53"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="110"/>
+      <c r="A78" s="115"/>
       <c r="B78" s="109"/>
       <c r="C78" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="94" t="s">
+      <c r="D78" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="94" t="s">
+      <c r="E78" s="98" t="s">
         <v>147</v>
       </c>
       <c r="F78" s="1">
@@ -10156,17 +10319,17 @@
       <c r="H78" s="109">
         <v>1</v>
       </c>
-      <c r="I78" s="94">
-        <v>1</v>
-      </c>
-      <c r="J78" s="94">
+      <c r="I78" s="98">
+        <v>1</v>
+      </c>
+      <c r="J78" s="98">
         <v>4</v>
       </c>
       <c r="K78" s="109" t="s">
         <v>57</v>
       </c>
       <c r="L78" s="109"/>
-      <c r="M78" s="94" t="s">
+      <c r="M78" s="98" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="109"/>
@@ -10187,24 +10350,24 @@
       </c>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="110"/>
-      <c r="B79" s="110"/>
-      <c r="C79" s="110"/>
-      <c r="D79" s="95"/>
-      <c r="E79" s="95"/>
+      <c r="A79" s="115"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="115"/>
+      <c r="D79" s="100"/>
+      <c r="E79" s="100"/>
       <c r="F79" s="1">
         <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H79" s="110"/>
-      <c r="I79" s="95"/>
-      <c r="J79" s="95"/>
-      <c r="K79" s="110"/>
-      <c r="L79" s="110"/>
-      <c r="M79" s="95"/>
-      <c r="N79" s="110"/>
+      <c r="H79" s="115"/>
+      <c r="I79" s="100"/>
+      <c r="J79" s="100"/>
+      <c r="K79" s="115"/>
+      <c r="L79" s="115"/>
+      <c r="M79" s="100"/>
+      <c r="N79" s="115"/>
       <c r="O79" s="52"/>
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
@@ -10212,24 +10375,24 @@
       <c r="S79" s="52"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="110"/>
-      <c r="B80" s="110"/>
-      <c r="C80" s="110"/>
-      <c r="D80" s="95"/>
-      <c r="E80" s="95"/>
+      <c r="A80" s="115"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="100"/>
       <c r="F80" s="1">
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="110"/>
-      <c r="I80" s="95"/>
-      <c r="J80" s="95"/>
-      <c r="K80" s="110"/>
-      <c r="L80" s="110"/>
-      <c r="M80" s="95"/>
-      <c r="N80" s="110"/>
+      <c r="H80" s="115"/>
+      <c r="I80" s="100"/>
+      <c r="J80" s="100"/>
+      <c r="K80" s="115"/>
+      <c r="L80" s="115"/>
+      <c r="M80" s="100"/>
+      <c r="N80" s="115"/>
       <c r="O80" s="52"/>
       <c r="P80" s="52"/>
       <c r="Q80" s="52"/>
@@ -10237,24 +10400,24 @@
       <c r="S80" s="52"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="110"/>
-      <c r="B81" s="111"/>
-      <c r="C81" s="111"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="96"/>
+      <c r="A81" s="115"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="110"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="99"/>
       <c r="F81" s="1">
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="111"/>
-      <c r="I81" s="96"/>
-      <c r="J81" s="96"/>
-      <c r="K81" s="111"/>
-      <c r="L81" s="111"/>
-      <c r="M81" s="96"/>
-      <c r="N81" s="111"/>
+      <c r="H81" s="110"/>
+      <c r="I81" s="99"/>
+      <c r="J81" s="99"/>
+      <c r="K81" s="110"/>
+      <c r="L81" s="110"/>
+      <c r="M81" s="99"/>
+      <c r="N81" s="110"/>
       <c r="O81" s="53"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
@@ -10262,7 +10425,7 @@
       <c r="S81" s="53"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="110"/>
+      <c r="A82" s="115"/>
       <c r="B82" s="1" t="s">
         <v>61</v>
       </c>
@@ -10307,7 +10470,7 @@
       </c>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="110"/>
+      <c r="A83" s="115"/>
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
@@ -10352,7 +10515,7 @@
       </c>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="110"/>
+      <c r="A84" s="115"/>
       <c r="B84" s="1" t="s">
         <v>61</v>
       </c>
@@ -10396,8 +10559,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="18.75">
-      <c r="A85" s="110"/>
+    <row r="85" spans="1:19" ht="19.5">
+      <c r="A85" s="115"/>
       <c r="B85" s="1" t="s">
         <v>61</v>
       </c>
@@ -10443,8 +10606,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18.75">
-      <c r="A86" s="110"/>
+    <row r="86" spans="1:19" ht="19.5">
+      <c r="A86" s="115"/>
       <c r="B86" s="1" t="s">
         <v>61</v>
       </c>
@@ -10490,8 +10653,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="18.75">
-      <c r="A87" s="110"/>
+    <row r="87" spans="1:19" ht="19.5">
+      <c r="A87" s="115"/>
       <c r="B87" s="1" t="s">
         <v>61</v>
       </c>
@@ -10535,8 +10698,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="18.75">
-      <c r="A88" s="110"/>
+    <row r="88" spans="1:19" ht="19.5">
+      <c r="A88" s="115"/>
       <c r="B88" s="1" t="s">
         <v>61</v>
       </c>
@@ -10580,8 +10743,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="18.75">
-      <c r="A89" s="110"/>
+    <row r="89" spans="1:19" ht="19.5">
+      <c r="A89" s="115"/>
       <c r="B89" s="1" t="s">
         <v>61</v>
       </c>
@@ -10625,8 +10788,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="18.75">
-      <c r="A90" s="110"/>
+    <row r="90" spans="1:19" ht="19.5">
+      <c r="A90" s="115"/>
       <c r="B90" s="1" t="s">
         <v>61</v>
       </c>
@@ -10670,8 +10833,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="18.75">
-      <c r="A91" s="110"/>
+    <row r="91" spans="1:19" ht="19.5">
+      <c r="A91" s="115"/>
       <c r="B91" s="1" t="s">
         <v>61</v>
       </c>
@@ -10715,8 +10878,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="18.75">
-      <c r="A92" s="110"/>
+    <row r="92" spans="1:19" ht="19.5">
+      <c r="A92" s="115"/>
       <c r="B92" s="1" t="s">
         <v>61</v>
       </c>
@@ -10761,7 +10924,7 @@
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="110"/>
+      <c r="A93" s="115"/>
       <c r="B93" s="109" t="s">
         <v>61</v>
       </c>
@@ -10802,24 +10965,24 @@
       <c r="S93" s="56"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="110"/>
-      <c r="B94" s="111"/>
-      <c r="C94" s="111"/>
-      <c r="D94" s="111"/>
-      <c r="E94" s="111"/>
+      <c r="A94" s="115"/>
+      <c r="B94" s="110"/>
+      <c r="C94" s="110"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="110"/>
       <c r="F94" s="1">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="111"/>
-      <c r="I94" s="111"/>
-      <c r="J94" s="111"/>
-      <c r="K94" s="111"/>
-      <c r="L94" s="111"/>
-      <c r="M94" s="111"/>
-      <c r="N94" s="111"/>
+      <c r="H94" s="110"/>
+      <c r="I94" s="110"/>
+      <c r="J94" s="110"/>
+      <c r="K94" s="110"/>
+      <c r="L94" s="110"/>
+      <c r="M94" s="110"/>
+      <c r="N94" s="110"/>
       <c r="O94" s="55"/>
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
@@ -10827,7 +10990,7 @@
       <c r="S94" s="55"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="110"/>
+      <c r="A95" s="115"/>
       <c r="B95" s="109" t="s">
         <v>61</v>
       </c>
@@ -10868,24 +11031,24 @@
       <c r="S95" s="56"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="110"/>
-      <c r="B96" s="111"/>
-      <c r="C96" s="111"/>
-      <c r="D96" s="111"/>
-      <c r="E96" s="111"/>
+      <c r="A96" s="115"/>
+      <c r="B96" s="110"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="110"/>
+      <c r="E96" s="110"/>
       <c r="F96" s="1">
         <v>2</v>
       </c>
       <c r="G96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H96" s="111"/>
-      <c r="I96" s="111"/>
-      <c r="J96" s="111"/>
-      <c r="K96" s="111"/>
-      <c r="L96" s="111"/>
-      <c r="M96" s="111"/>
-      <c r="N96" s="111"/>
+      <c r="H96" s="110"/>
+      <c r="I96" s="110"/>
+      <c r="J96" s="110"/>
+      <c r="K96" s="110"/>
+      <c r="L96" s="110"/>
+      <c r="M96" s="110"/>
+      <c r="N96" s="110"/>
       <c r="O96" s="55"/>
       <c r="P96" s="55"/>
       <c r="Q96" s="55"/>
@@ -10893,7 +11056,7 @@
       <c r="S96" s="55"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="111"/>
+      <c r="A97" s="110"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -10942,7 +11105,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="17.649999999999999" customHeight="1">
-      <c r="A98" s="115" t="s">
+      <c r="A98" s="119" t="s">
         <v>134</v>
       </c>
       <c r="B98" s="109" t="s">
@@ -10993,24 +11156,24 @@
       </c>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="116"/>
-      <c r="B99" s="110"/>
-      <c r="C99" s="110"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="110"/>
+      <c r="A99" s="120"/>
+      <c r="B99" s="115"/>
+      <c r="C99" s="115"/>
+      <c r="D99" s="115"/>
+      <c r="E99" s="115"/>
       <c r="F99" s="1">
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H99" s="110"/>
-      <c r="I99" s="110"/>
-      <c r="J99" s="110"/>
-      <c r="K99" s="110"/>
-      <c r="L99" s="110"/>
-      <c r="M99" s="110"/>
-      <c r="N99" s="110"/>
+      <c r="H99" s="115"/>
+      <c r="I99" s="115"/>
+      <c r="J99" s="115"/>
+      <c r="K99" s="115"/>
+      <c r="L99" s="115"/>
+      <c r="M99" s="115"/>
+      <c r="N99" s="115"/>
       <c r="O99" s="52"/>
       <c r="P99" s="52"/>
       <c r="Q99" s="52"/>
@@ -11018,24 +11181,24 @@
       <c r="S99" s="52"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="116"/>
-      <c r="B100" s="111"/>
-      <c r="C100" s="111"/>
-      <c r="D100" s="111"/>
-      <c r="E100" s="111"/>
+      <c r="A100" s="120"/>
+      <c r="B100" s="110"/>
+      <c r="C100" s="110"/>
+      <c r="D100" s="110"/>
+      <c r="E100" s="110"/>
       <c r="F100" s="1">
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="111"/>
-      <c r="I100" s="111"/>
-      <c r="J100" s="111"/>
-      <c r="K100" s="111"/>
-      <c r="L100" s="111"/>
-      <c r="M100" s="111"/>
-      <c r="N100" s="111"/>
+      <c r="H100" s="110"/>
+      <c r="I100" s="110"/>
+      <c r="J100" s="110"/>
+      <c r="K100" s="110"/>
+      <c r="L100" s="110"/>
+      <c r="M100" s="110"/>
+      <c r="N100" s="110"/>
       <c r="O100" s="53"/>
       <c r="P100" s="53"/>
       <c r="Q100" s="53"/>
@@ -11043,7 +11206,7 @@
       <c r="S100" s="53"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="116"/>
+      <c r="A101" s="120"/>
       <c r="B101" s="109"/>
       <c r="C101" s="109" t="s">
         <v>61</v>
@@ -11092,24 +11255,24 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="116"/>
-      <c r="B102" s="110"/>
-      <c r="C102" s="110"/>
-      <c r="D102" s="110"/>
-      <c r="E102" s="110"/>
+      <c r="A102" s="120"/>
+      <c r="B102" s="115"/>
+      <c r="C102" s="115"/>
+      <c r="D102" s="115"/>
+      <c r="E102" s="115"/>
       <c r="F102" s="1">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H102" s="110"/>
-      <c r="I102" s="110"/>
-      <c r="J102" s="110"/>
-      <c r="K102" s="110"/>
-      <c r="L102" s="110"/>
-      <c r="M102" s="110"/>
-      <c r="N102" s="110"/>
+      <c r="H102" s="115"/>
+      <c r="I102" s="115"/>
+      <c r="J102" s="115"/>
+      <c r="K102" s="115"/>
+      <c r="L102" s="115"/>
+      <c r="M102" s="115"/>
+      <c r="N102" s="115"/>
       <c r="O102" s="52"/>
       <c r="P102" s="52"/>
       <c r="Q102" s="52"/>
@@ -11117,24 +11280,24 @@
       <c r="S102" s="52"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="116"/>
-      <c r="B103" s="110"/>
-      <c r="C103" s="110"/>
-      <c r="D103" s="110"/>
-      <c r="E103" s="110"/>
+      <c r="A103" s="120"/>
+      <c r="B103" s="115"/>
+      <c r="C103" s="115"/>
+      <c r="D103" s="115"/>
+      <c r="E103" s="115"/>
       <c r="F103" s="1">
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="110"/>
-      <c r="I103" s="110"/>
-      <c r="J103" s="110"/>
-      <c r="K103" s="110"/>
-      <c r="L103" s="110"/>
-      <c r="M103" s="110"/>
-      <c r="N103" s="110"/>
+      <c r="H103" s="115"/>
+      <c r="I103" s="115"/>
+      <c r="J103" s="115"/>
+      <c r="K103" s="115"/>
+      <c r="L103" s="115"/>
+      <c r="M103" s="115"/>
+      <c r="N103" s="115"/>
       <c r="O103" s="52"/>
       <c r="P103" s="52"/>
       <c r="Q103" s="52"/>
@@ -11142,24 +11305,24 @@
       <c r="S103" s="52"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="116"/>
-      <c r="B104" s="111"/>
-      <c r="C104" s="111"/>
-      <c r="D104" s="111"/>
-      <c r="E104" s="111"/>
+      <c r="A104" s="120"/>
+      <c r="B104" s="110"/>
+      <c r="C104" s="110"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="110"/>
       <c r="F104" s="1">
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H104" s="111"/>
-      <c r="I104" s="111"/>
-      <c r="J104" s="111"/>
-      <c r="K104" s="111"/>
-      <c r="L104" s="111"/>
-      <c r="M104" s="111"/>
-      <c r="N104" s="111"/>
+      <c r="H104" s="110"/>
+      <c r="I104" s="110"/>
+      <c r="J104" s="110"/>
+      <c r="K104" s="110"/>
+      <c r="L104" s="110"/>
+      <c r="M104" s="110"/>
+      <c r="N104" s="110"/>
       <c r="O104" s="53"/>
       <c r="P104" s="53"/>
       <c r="Q104" s="53"/>
@@ -11167,7 +11330,7 @@
       <c r="S104" s="53"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="116"/>
+      <c r="A105" s="120"/>
       <c r="B105" s="109" t="s">
         <v>61</v>
       </c>
@@ -11216,24 +11379,24 @@
       </c>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="116"/>
-      <c r="B106" s="110"/>
-      <c r="C106" s="110"/>
-      <c r="D106" s="110"/>
-      <c r="E106" s="110"/>
+      <c r="A106" s="120"/>
+      <c r="B106" s="115"/>
+      <c r="C106" s="115"/>
+      <c r="D106" s="115"/>
+      <c r="E106" s="115"/>
       <c r="F106" s="1">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H106" s="110"/>
-      <c r="I106" s="110"/>
-      <c r="J106" s="110"/>
-      <c r="K106" s="110"/>
-      <c r="L106" s="110"/>
-      <c r="M106" s="110"/>
-      <c r="N106" s="110"/>
+      <c r="H106" s="115"/>
+      <c r="I106" s="115"/>
+      <c r="J106" s="115"/>
+      <c r="K106" s="115"/>
+      <c r="L106" s="115"/>
+      <c r="M106" s="115"/>
+      <c r="N106" s="115"/>
       <c r="O106" s="52"/>
       <c r="P106" s="52"/>
       <c r="Q106" s="52"/>
@@ -11241,24 +11404,24 @@
       <c r="S106" s="52"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="116"/>
-      <c r="B107" s="111"/>
-      <c r="C107" s="111"/>
-      <c r="D107" s="111"/>
-      <c r="E107" s="111"/>
+      <c r="A107" s="120"/>
+      <c r="B107" s="110"/>
+      <c r="C107" s="110"/>
+      <c r="D107" s="110"/>
+      <c r="E107" s="110"/>
       <c r="F107" s="1">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="111"/>
-      <c r="I107" s="111"/>
-      <c r="J107" s="111"/>
-      <c r="K107" s="111"/>
-      <c r="L107" s="111"/>
-      <c r="M107" s="111"/>
-      <c r="N107" s="111"/>
+      <c r="H107" s="110"/>
+      <c r="I107" s="110"/>
+      <c r="J107" s="110"/>
+      <c r="K107" s="110"/>
+      <c r="L107" s="110"/>
+      <c r="M107" s="110"/>
+      <c r="N107" s="110"/>
       <c r="O107" s="53"/>
       <c r="P107" s="53"/>
       <c r="Q107" s="53"/>
@@ -11266,7 +11429,7 @@
       <c r="S107" s="53"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="116"/>
+      <c r="A108" s="120"/>
       <c r="B108" s="109"/>
       <c r="C108" s="109" t="s">
         <v>61</v>
@@ -11315,24 +11478,24 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="116"/>
-      <c r="B109" s="110"/>
-      <c r="C109" s="110"/>
-      <c r="D109" s="110"/>
-      <c r="E109" s="110"/>
+      <c r="A109" s="120"/>
+      <c r="B109" s="115"/>
+      <c r="C109" s="115"/>
+      <c r="D109" s="115"/>
+      <c r="E109" s="115"/>
       <c r="F109" s="1">
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="110"/>
-      <c r="I109" s="110"/>
-      <c r="J109" s="110"/>
-      <c r="K109" s="110"/>
-      <c r="L109" s="110"/>
-      <c r="M109" s="110"/>
-      <c r="N109" s="110"/>
+      <c r="H109" s="115"/>
+      <c r="I109" s="115"/>
+      <c r="J109" s="115"/>
+      <c r="K109" s="115"/>
+      <c r="L109" s="115"/>
+      <c r="M109" s="115"/>
+      <c r="N109" s="115"/>
       <c r="O109" s="52"/>
       <c r="P109" s="52"/>
       <c r="Q109" s="52"/>
@@ -11340,24 +11503,24 @@
       <c r="S109" s="52"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="116"/>
-      <c r="B110" s="110"/>
-      <c r="C110" s="110"/>
-      <c r="D110" s="110"/>
-      <c r="E110" s="110"/>
+      <c r="A110" s="120"/>
+      <c r="B110" s="115"/>
+      <c r="C110" s="115"/>
+      <c r="D110" s="115"/>
+      <c r="E110" s="115"/>
       <c r="F110" s="1">
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H110" s="110"/>
-      <c r="I110" s="110"/>
-      <c r="J110" s="110"/>
-      <c r="K110" s="110"/>
-      <c r="L110" s="110"/>
-      <c r="M110" s="110"/>
-      <c r="N110" s="110"/>
+      <c r="H110" s="115"/>
+      <c r="I110" s="115"/>
+      <c r="J110" s="115"/>
+      <c r="K110" s="115"/>
+      <c r="L110" s="115"/>
+      <c r="M110" s="115"/>
+      <c r="N110" s="115"/>
       <c r="O110" s="52"/>
       <c r="P110" s="52"/>
       <c r="Q110" s="52"/>
@@ -11365,32 +11528,32 @@
       <c r="S110" s="52"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="116"/>
-      <c r="B111" s="111"/>
-      <c r="C111" s="111"/>
-      <c r="D111" s="111"/>
-      <c r="E111" s="111"/>
+      <c r="A111" s="120"/>
+      <c r="B111" s="110"/>
+      <c r="C111" s="110"/>
+      <c r="D111" s="110"/>
+      <c r="E111" s="110"/>
       <c r="F111" s="1">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H111" s="111"/>
-      <c r="I111" s="111"/>
-      <c r="J111" s="111"/>
-      <c r="K111" s="111"/>
-      <c r="L111" s="111"/>
-      <c r="M111" s="111"/>
-      <c r="N111" s="111"/>
+      <c r="H111" s="110"/>
+      <c r="I111" s="110"/>
+      <c r="J111" s="110"/>
+      <c r="K111" s="110"/>
+      <c r="L111" s="110"/>
+      <c r="M111" s="110"/>
+      <c r="N111" s="110"/>
       <c r="O111" s="53"/>
       <c r="P111" s="53"/>
       <c r="Q111" s="53"/>
       <c r="R111" s="53"/>
       <c r="S111" s="53"/>
     </row>
-    <row r="112" spans="1:19" ht="18.75">
-      <c r="A112" s="116"/>
+    <row r="112" spans="1:19" ht="19.5">
+      <c r="A112" s="120"/>
       <c r="B112" s="1" t="s">
         <v>61</v>
       </c>
@@ -11434,8 +11597,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="18.75">
-      <c r="A113" s="116"/>
+    <row r="113" spans="1:23" ht="19.5">
+      <c r="A113" s="120"/>
       <c r="B113" s="1" t="s">
         <v>61</v>
       </c>
@@ -11479,8 +11642,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="18.75">
-      <c r="A114" s="117"/>
+    <row r="114" spans="1:23" ht="19.5">
+      <c r="A114" s="121"/>
       <c r="B114" s="1" t="s">
         <v>61</v>
       </c>
@@ -11525,14 +11688,14 @@
       </c>
     </row>
     <row r="115" spans="1:23">
-      <c r="A115" s="115" t="s">
+      <c r="A115" s="119" t="s">
         <v>135</v>
       </c>
       <c r="B115" s="109" t="s">
         <v>51</v>
       </c>
       <c r="C115" s="109"/>
-      <c r="D115" s="94" t="s">
+      <c r="D115" s="98" t="s">
         <v>137</v>
       </c>
       <c r="E115" s="109"/>
@@ -11545,17 +11708,17 @@
       <c r="H115" s="109">
         <v>1</v>
       </c>
-      <c r="I115" s="94">
-        <v>1</v>
-      </c>
-      <c r="J115" s="94">
+      <c r="I115" s="98">
+        <v>1</v>
+      </c>
+      <c r="J115" s="98">
         <v>4</v>
       </c>
       <c r="K115" s="109" t="s">
         <v>57</v>
       </c>
       <c r="L115" s="109"/>
-      <c r="M115" s="94" t="s">
+      <c r="M115" s="98" t="s">
         <v>38</v>
       </c>
       <c r="N115" s="109"/>
@@ -11576,24 +11739,24 @@
       </c>
     </row>
     <row r="116" spans="1:23">
-      <c r="A116" s="110"/>
-      <c r="B116" s="110"/>
-      <c r="C116" s="110"/>
-      <c r="D116" s="95"/>
-      <c r="E116" s="110"/>
+      <c r="A116" s="115"/>
+      <c r="B116" s="115"/>
+      <c r="C116" s="115"/>
+      <c r="D116" s="100"/>
+      <c r="E116" s="115"/>
       <c r="F116" s="1">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H116" s="110"/>
-      <c r="I116" s="95"/>
-      <c r="J116" s="95"/>
-      <c r="K116" s="110"/>
-      <c r="L116" s="110"/>
-      <c r="M116" s="95"/>
-      <c r="N116" s="110"/>
+      <c r="H116" s="115"/>
+      <c r="I116" s="100"/>
+      <c r="J116" s="100"/>
+      <c r="K116" s="115"/>
+      <c r="L116" s="115"/>
+      <c r="M116" s="100"/>
+      <c r="N116" s="115"/>
       <c r="O116" s="52"/>
       <c r="P116" s="52"/>
       <c r="Q116" s="52"/>
@@ -11601,24 +11764,24 @@
       <c r="S116" s="52"/>
     </row>
     <row r="117" spans="1:23" s="7" customFormat="1">
-      <c r="A117" s="110"/>
-      <c r="B117" s="110"/>
-      <c r="C117" s="110"/>
-      <c r="D117" s="95"/>
-      <c r="E117" s="110"/>
+      <c r="A117" s="115"/>
+      <c r="B117" s="115"/>
+      <c r="C117" s="115"/>
+      <c r="D117" s="100"/>
+      <c r="E117" s="115"/>
       <c r="F117" s="6">
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H117" s="110"/>
-      <c r="I117" s="95"/>
-      <c r="J117" s="95"/>
-      <c r="K117" s="110"/>
-      <c r="L117" s="110"/>
-      <c r="M117" s="95"/>
-      <c r="N117" s="110"/>
+      <c r="H117" s="115"/>
+      <c r="I117" s="100"/>
+      <c r="J117" s="100"/>
+      <c r="K117" s="115"/>
+      <c r="L117" s="115"/>
+      <c r="M117" s="100"/>
+      <c r="N117" s="115"/>
       <c r="O117" s="52"/>
       <c r="P117" s="52"/>
       <c r="Q117" s="52"/>
@@ -11630,24 +11793,24 @@
       <c r="W117" s="27"/>
     </row>
     <row r="118" spans="1:23">
-      <c r="A118" s="110"/>
-      <c r="B118" s="111"/>
-      <c r="C118" s="111"/>
-      <c r="D118" s="96"/>
-      <c r="E118" s="111"/>
+      <c r="A118" s="115"/>
+      <c r="B118" s="110"/>
+      <c r="C118" s="110"/>
+      <c r="D118" s="99"/>
+      <c r="E118" s="110"/>
       <c r="F118" s="10">
         <v>4</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H118" s="111"/>
-      <c r="I118" s="96"/>
-      <c r="J118" s="96"/>
-      <c r="K118" s="111"/>
-      <c r="L118" s="111"/>
-      <c r="M118" s="96"/>
-      <c r="N118" s="111"/>
+      <c r="H118" s="110"/>
+      <c r="I118" s="99"/>
+      <c r="J118" s="99"/>
+      <c r="K118" s="110"/>
+      <c r="L118" s="110"/>
+      <c r="M118" s="99"/>
+      <c r="N118" s="110"/>
       <c r="O118" s="53"/>
       <c r="P118" s="53"/>
       <c r="Q118" s="53"/>
@@ -11655,15 +11818,15 @@
       <c r="S118" s="53"/>
     </row>
     <row r="119" spans="1:23">
-      <c r="A119" s="110"/>
+      <c r="A119" s="115"/>
       <c r="B119" s="109"/>
       <c r="C119" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="D119" s="94" t="s">
+      <c r="D119" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="94" t="s">
+      <c r="E119" s="98" t="s">
         <v>147</v>
       </c>
       <c r="F119" s="1">
@@ -11675,17 +11838,17 @@
       <c r="H119" s="109">
         <v>1</v>
       </c>
-      <c r="I119" s="94">
-        <v>1</v>
-      </c>
-      <c r="J119" s="94">
+      <c r="I119" s="98">
+        <v>1</v>
+      </c>
+      <c r="J119" s="98">
         <v>4</v>
       </c>
       <c r="K119" s="109" t="s">
         <v>57</v>
       </c>
       <c r="L119" s="109"/>
-      <c r="M119" s="94" t="s">
+      <c r="M119" s="98" t="s">
         <v>38</v>
       </c>
       <c r="N119" s="109"/>
@@ -11706,24 +11869,24 @@
       </c>
     </row>
     <row r="120" spans="1:23">
-      <c r="A120" s="110"/>
-      <c r="B120" s="110"/>
-      <c r="C120" s="110"/>
-      <c r="D120" s="95"/>
-      <c r="E120" s="95"/>
+      <c r="A120" s="115"/>
+      <c r="B120" s="115"/>
+      <c r="C120" s="115"/>
+      <c r="D120" s="100"/>
+      <c r="E120" s="100"/>
       <c r="F120" s="1">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H120" s="110"/>
-      <c r="I120" s="95"/>
-      <c r="J120" s="95"/>
-      <c r="K120" s="110"/>
-      <c r="L120" s="110"/>
-      <c r="M120" s="95"/>
-      <c r="N120" s="110"/>
+      <c r="H120" s="115"/>
+      <c r="I120" s="100"/>
+      <c r="J120" s="100"/>
+      <c r="K120" s="115"/>
+      <c r="L120" s="115"/>
+      <c r="M120" s="100"/>
+      <c r="N120" s="115"/>
       <c r="O120" s="52"/>
       <c r="P120" s="52"/>
       <c r="Q120" s="52"/>
@@ -11731,24 +11894,24 @@
       <c r="S120" s="52"/>
     </row>
     <row r="121" spans="1:23">
-      <c r="A121" s="110"/>
-      <c r="B121" s="110"/>
-      <c r="C121" s="110"/>
-      <c r="D121" s="95"/>
-      <c r="E121" s="95"/>
+      <c r="A121" s="115"/>
+      <c r="B121" s="115"/>
+      <c r="C121" s="115"/>
+      <c r="D121" s="100"/>
+      <c r="E121" s="100"/>
       <c r="F121" s="1">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H121" s="110"/>
-      <c r="I121" s="95"/>
-      <c r="J121" s="95"/>
-      <c r="K121" s="110"/>
-      <c r="L121" s="110"/>
-      <c r="M121" s="95"/>
-      <c r="N121" s="110"/>
+      <c r="H121" s="115"/>
+      <c r="I121" s="100"/>
+      <c r="J121" s="100"/>
+      <c r="K121" s="115"/>
+      <c r="L121" s="115"/>
+      <c r="M121" s="100"/>
+      <c r="N121" s="115"/>
       <c r="O121" s="52"/>
       <c r="P121" s="52"/>
       <c r="Q121" s="52"/>
@@ -11756,24 +11919,24 @@
       <c r="S121" s="52"/>
     </row>
     <row r="122" spans="1:23">
-      <c r="A122" s="110"/>
-      <c r="B122" s="111"/>
-      <c r="C122" s="111"/>
-      <c r="D122" s="96"/>
-      <c r="E122" s="96"/>
+      <c r="A122" s="115"/>
+      <c r="B122" s="110"/>
+      <c r="C122" s="110"/>
+      <c r="D122" s="99"/>
+      <c r="E122" s="99"/>
       <c r="F122" s="1">
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H122" s="111"/>
-      <c r="I122" s="96"/>
-      <c r="J122" s="96"/>
-      <c r="K122" s="111"/>
-      <c r="L122" s="111"/>
-      <c r="M122" s="96"/>
-      <c r="N122" s="111"/>
+      <c r="H122" s="110"/>
+      <c r="I122" s="99"/>
+      <c r="J122" s="99"/>
+      <c r="K122" s="110"/>
+      <c r="L122" s="110"/>
+      <c r="M122" s="99"/>
+      <c r="N122" s="110"/>
       <c r="O122" s="53"/>
       <c r="P122" s="53"/>
       <c r="Q122" s="53"/>
@@ -11781,7 +11944,7 @@
       <c r="S122" s="53"/>
     </row>
     <row r="123" spans="1:23">
-      <c r="A123" s="110"/>
+      <c r="A123" s="115"/>
       <c r="B123" s="109" t="s">
         <v>61</v>
       </c>
@@ -11830,24 +11993,24 @@
       </c>
     </row>
     <row r="124" spans="1:23">
-      <c r="A124" s="110"/>
-      <c r="B124" s="111"/>
-      <c r="C124" s="111"/>
-      <c r="D124" s="111"/>
-      <c r="E124" s="111"/>
+      <c r="A124" s="115"/>
+      <c r="B124" s="110"/>
+      <c r="C124" s="110"/>
+      <c r="D124" s="110"/>
+      <c r="E124" s="110"/>
       <c r="F124" s="1">
         <v>2</v>
       </c>
       <c r="G124" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H124" s="111"/>
-      <c r="I124" s="111"/>
-      <c r="J124" s="111"/>
-      <c r="K124" s="111"/>
-      <c r="L124" s="111"/>
-      <c r="M124" s="111"/>
-      <c r="N124" s="111"/>
+      <c r="H124" s="110"/>
+      <c r="I124" s="110"/>
+      <c r="J124" s="110"/>
+      <c r="K124" s="110"/>
+      <c r="L124" s="110"/>
+      <c r="M124" s="110"/>
+      <c r="N124" s="110"/>
       <c r="O124" s="53"/>
       <c r="P124" s="53"/>
       <c r="Q124" s="53"/>
@@ -11855,12 +12018,12 @@
       <c r="S124" s="53"/>
     </row>
     <row r="125" spans="1:23" s="11" customFormat="1">
-      <c r="A125" s="110"/>
-      <c r="B125" s="103" t="s">
+      <c r="A125" s="115"/>
+      <c r="B125" s="106" t="s">
         <v>51</v>
       </c>
       <c r="C125" s="12"/>
-      <c r="D125" s="100" t="s">
+      <c r="D125" s="103" t="s">
         <v>150</v>
       </c>
       <c r="E125" s="12"/>
@@ -11870,16 +12033,16 @@
       <c r="G125" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H125" s="94">
-        <v>1</v>
-      </c>
-      <c r="I125" s="94">
-        <v>1</v>
-      </c>
-      <c r="J125" s="94">
+      <c r="H125" s="98">
+        <v>1</v>
+      </c>
+      <c r="I125" s="98">
+        <v>1</v>
+      </c>
+      <c r="J125" s="98">
         <v>2</v>
       </c>
-      <c r="K125" s="94" t="s">
+      <c r="K125" s="98" t="s">
         <v>11</v>
       </c>
       <c r="L125" s="109"/>
@@ -11908,10 +12071,10 @@
       <c r="W125" s="27"/>
     </row>
     <row r="126" spans="1:23" s="11" customFormat="1">
-      <c r="A126" s="110"/>
-      <c r="B126" s="105"/>
+      <c r="A126" s="115"/>
+      <c r="B126" s="114"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="102"/>
+      <c r="D126" s="105"/>
       <c r="E126" s="12"/>
       <c r="F126" s="10">
         <v>2</v>
@@ -11919,12 +12082,12 @@
       <c r="G126" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H126" s="96"/>
-      <c r="I126" s="96"/>
-      <c r="J126" s="96"/>
-      <c r="K126" s="96"/>
-      <c r="L126" s="111"/>
-      <c r="M126" s="111"/>
+      <c r="H126" s="99"/>
+      <c r="I126" s="99"/>
+      <c r="J126" s="99"/>
+      <c r="K126" s="99"/>
+      <c r="L126" s="110"/>
+      <c r="M126" s="110"/>
       <c r="N126" s="12"/>
       <c r="O126" s="53"/>
       <c r="P126" s="53"/>
@@ -11937,15 +12100,15 @@
       <c r="W126" s="27"/>
     </row>
     <row r="127" spans="1:23">
-      <c r="A127" s="110"/>
+      <c r="A127" s="115"/>
       <c r="B127" s="109" t="s">
         <v>61</v>
       </c>
       <c r="C127" s="109"/>
-      <c r="D127" s="119" t="s">
+      <c r="D127" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="E127" s="118" t="s">
+      <c r="E127" s="116" t="s">
         <v>145</v>
       </c>
       <c r="F127" s="1">
@@ -11960,7 +12123,7 @@
       <c r="I127" s="109">
         <v>1</v>
       </c>
-      <c r="J127" s="94">
+      <c r="J127" s="98">
         <v>15</v>
       </c>
       <c r="K127" s="109" t="s">
@@ -11990,23 +12153,23 @@
       </c>
     </row>
     <row r="128" spans="1:23">
-      <c r="A128" s="110"/>
-      <c r="B128" s="110"/>
-      <c r="C128" s="110"/>
-      <c r="D128" s="119"/>
-      <c r="E128" s="118"/>
+      <c r="A128" s="115"/>
+      <c r="B128" s="115"/>
+      <c r="C128" s="115"/>
+      <c r="D128" s="117"/>
+      <c r="E128" s="116"/>
       <c r="F128" s="1">
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="110"/>
-      <c r="I128" s="110"/>
-      <c r="J128" s="95"/>
-      <c r="K128" s="110"/>
-      <c r="L128" s="110"/>
-      <c r="M128" s="110"/>
+      <c r="H128" s="115"/>
+      <c r="I128" s="115"/>
+      <c r="J128" s="100"/>
+      <c r="K128" s="115"/>
+      <c r="L128" s="115"/>
+      <c r="M128" s="115"/>
       <c r="N128" s="9" t="s">
         <v>142</v>
       </c>
@@ -12027,23 +12190,23 @@
       </c>
     </row>
     <row r="129" spans="1:23">
-      <c r="A129" s="110"/>
-      <c r="B129" s="110"/>
-      <c r="C129" s="110"/>
-      <c r="D129" s="119"/>
-      <c r="E129" s="118"/>
+      <c r="A129" s="115"/>
+      <c r="B129" s="115"/>
+      <c r="C129" s="115"/>
+      <c r="D129" s="117"/>
+      <c r="E129" s="116"/>
       <c r="F129" s="1">
         <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H129" s="110"/>
-      <c r="I129" s="110"/>
-      <c r="J129" s="95"/>
-      <c r="K129" s="110"/>
-      <c r="L129" s="110"/>
-      <c r="M129" s="110"/>
+      <c r="H129" s="115"/>
+      <c r="I129" s="115"/>
+      <c r="J129" s="100"/>
+      <c r="K129" s="115"/>
+      <c r="L129" s="115"/>
+      <c r="M129" s="115"/>
       <c r="N129" s="9" t="s">
         <v>142</v>
       </c>
@@ -12064,23 +12227,23 @@
       </c>
     </row>
     <row r="130" spans="1:23">
-      <c r="A130" s="110"/>
-      <c r="B130" s="110"/>
-      <c r="C130" s="110"/>
-      <c r="D130" s="119"/>
-      <c r="E130" s="118"/>
+      <c r="A130" s="115"/>
+      <c r="B130" s="115"/>
+      <c r="C130" s="115"/>
+      <c r="D130" s="117"/>
+      <c r="E130" s="116"/>
       <c r="F130" s="1">
         <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="110"/>
-      <c r="I130" s="110"/>
-      <c r="J130" s="95"/>
-      <c r="K130" s="110"/>
-      <c r="L130" s="110"/>
-      <c r="M130" s="110"/>
+      <c r="H130" s="115"/>
+      <c r="I130" s="115"/>
+      <c r="J130" s="100"/>
+      <c r="K130" s="115"/>
+      <c r="L130" s="115"/>
+      <c r="M130" s="115"/>
       <c r="N130" s="9" t="s">
         <v>142</v>
       </c>
@@ -12101,23 +12264,23 @@
       </c>
     </row>
     <row r="131" spans="1:23">
-      <c r="A131" s="110"/>
-      <c r="B131" s="110"/>
-      <c r="C131" s="110"/>
-      <c r="D131" s="119"/>
-      <c r="E131" s="118"/>
+      <c r="A131" s="115"/>
+      <c r="B131" s="115"/>
+      <c r="C131" s="115"/>
+      <c r="D131" s="117"/>
+      <c r="E131" s="116"/>
       <c r="F131" s="1">
         <v>5</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H131" s="110"/>
-      <c r="I131" s="110"/>
-      <c r="J131" s="95"/>
-      <c r="K131" s="110"/>
-      <c r="L131" s="110"/>
-      <c r="M131" s="110"/>
+      <c r="H131" s="115"/>
+      <c r="I131" s="115"/>
+      <c r="J131" s="100"/>
+      <c r="K131" s="115"/>
+      <c r="L131" s="115"/>
+      <c r="M131" s="115"/>
       <c r="N131" s="9" t="s">
         <v>142</v>
       </c>
@@ -12138,23 +12301,23 @@
       </c>
     </row>
     <row r="132" spans="1:23">
-      <c r="A132" s="110"/>
-      <c r="B132" s="110"/>
-      <c r="C132" s="110"/>
-      <c r="D132" s="119"/>
-      <c r="E132" s="118"/>
+      <c r="A132" s="115"/>
+      <c r="B132" s="115"/>
+      <c r="C132" s="115"/>
+      <c r="D132" s="117"/>
+      <c r="E132" s="116"/>
       <c r="F132" s="1">
         <v>6</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="110"/>
-      <c r="I132" s="110"/>
-      <c r="J132" s="95"/>
-      <c r="K132" s="110"/>
-      <c r="L132" s="110"/>
-      <c r="M132" s="110"/>
+      <c r="H132" s="115"/>
+      <c r="I132" s="115"/>
+      <c r="J132" s="100"/>
+      <c r="K132" s="115"/>
+      <c r="L132" s="115"/>
+      <c r="M132" s="115"/>
       <c r="N132" s="9" t="s">
         <v>142</v>
       </c>
@@ -12175,23 +12338,23 @@
       </c>
     </row>
     <row r="133" spans="1:23">
-      <c r="A133" s="110"/>
-      <c r="B133" s="110"/>
-      <c r="C133" s="110"/>
-      <c r="D133" s="119"/>
-      <c r="E133" s="118"/>
+      <c r="A133" s="115"/>
+      <c r="B133" s="115"/>
+      <c r="C133" s="115"/>
+      <c r="D133" s="117"/>
+      <c r="E133" s="116"/>
       <c r="F133" s="1">
         <v>7</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="110"/>
-      <c r="I133" s="110"/>
-      <c r="J133" s="95"/>
-      <c r="K133" s="110"/>
-      <c r="L133" s="110"/>
-      <c r="M133" s="110"/>
+      <c r="H133" s="115"/>
+      <c r="I133" s="115"/>
+      <c r="J133" s="100"/>
+      <c r="K133" s="115"/>
+      <c r="L133" s="115"/>
+      <c r="M133" s="115"/>
       <c r="N133" s="9" t="s">
         <v>142</v>
       </c>
@@ -12212,23 +12375,23 @@
       </c>
     </row>
     <row r="134" spans="1:23">
-      <c r="A134" s="110"/>
-      <c r="B134" s="110"/>
-      <c r="C134" s="110"/>
-      <c r="D134" s="119"/>
-      <c r="E134" s="118"/>
+      <c r="A134" s="115"/>
+      <c r="B134" s="115"/>
+      <c r="C134" s="115"/>
+      <c r="D134" s="117"/>
+      <c r="E134" s="116"/>
       <c r="F134" s="1">
         <v>8</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="110"/>
-      <c r="I134" s="110"/>
-      <c r="J134" s="95"/>
-      <c r="K134" s="110"/>
-      <c r="L134" s="110"/>
-      <c r="M134" s="110"/>
+      <c r="H134" s="115"/>
+      <c r="I134" s="115"/>
+      <c r="J134" s="100"/>
+      <c r="K134" s="115"/>
+      <c r="L134" s="115"/>
+      <c r="M134" s="115"/>
       <c r="N134" s="9" t="s">
         <v>142</v>
       </c>
@@ -12249,23 +12412,23 @@
       </c>
     </row>
     <row r="135" spans="1:23">
-      <c r="A135" s="110"/>
-      <c r="B135" s="110"/>
-      <c r="C135" s="110"/>
-      <c r="D135" s="119"/>
-      <c r="E135" s="118"/>
+      <c r="A135" s="115"/>
+      <c r="B135" s="115"/>
+      <c r="C135" s="115"/>
+      <c r="D135" s="117"/>
+      <c r="E135" s="116"/>
       <c r="F135" s="1">
         <v>9</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="110"/>
-      <c r="I135" s="110"/>
-      <c r="J135" s="95"/>
-      <c r="K135" s="110"/>
-      <c r="L135" s="110"/>
-      <c r="M135" s="110"/>
+      <c r="H135" s="115"/>
+      <c r="I135" s="115"/>
+      <c r="J135" s="100"/>
+      <c r="K135" s="115"/>
+      <c r="L135" s="115"/>
+      <c r="M135" s="115"/>
       <c r="N135" s="9" t="s">
         <v>142</v>
       </c>
@@ -12286,23 +12449,23 @@
       </c>
     </row>
     <row r="136" spans="1:23">
-      <c r="A136" s="110"/>
-      <c r="B136" s="110"/>
-      <c r="C136" s="110"/>
-      <c r="D136" s="119"/>
-      <c r="E136" s="118"/>
+      <c r="A136" s="115"/>
+      <c r="B136" s="115"/>
+      <c r="C136" s="115"/>
+      <c r="D136" s="117"/>
+      <c r="E136" s="116"/>
       <c r="F136" s="1">
         <v>10</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H136" s="110"/>
-      <c r="I136" s="110"/>
-      <c r="J136" s="95"/>
-      <c r="K136" s="110"/>
-      <c r="L136" s="110"/>
-      <c r="M136" s="110"/>
+      <c r="H136" s="115"/>
+      <c r="I136" s="115"/>
+      <c r="J136" s="100"/>
+      <c r="K136" s="115"/>
+      <c r="L136" s="115"/>
+      <c r="M136" s="115"/>
       <c r="N136" s="9" t="s">
         <v>142</v>
       </c>
@@ -12323,23 +12486,23 @@
       </c>
     </row>
     <row r="137" spans="1:23" s="7" customFormat="1">
-      <c r="A137" s="110"/>
-      <c r="B137" s="110"/>
-      <c r="C137" s="110"/>
-      <c r="D137" s="119"/>
-      <c r="E137" s="118"/>
+      <c r="A137" s="115"/>
+      <c r="B137" s="115"/>
+      <c r="C137" s="115"/>
+      <c r="D137" s="117"/>
+      <c r="E137" s="116"/>
       <c r="F137" s="10">
         <v>11</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H137" s="110"/>
-      <c r="I137" s="110"/>
-      <c r="J137" s="95"/>
-      <c r="K137" s="110"/>
-      <c r="L137" s="110"/>
-      <c r="M137" s="110"/>
+      <c r="H137" s="115"/>
+      <c r="I137" s="115"/>
+      <c r="J137" s="100"/>
+      <c r="K137" s="115"/>
+      <c r="L137" s="115"/>
+      <c r="M137" s="115"/>
       <c r="N137" s="9" t="s">
         <v>143</v>
       </c>
@@ -12364,23 +12527,23 @@
       <c r="W137" s="27"/>
     </row>
     <row r="138" spans="1:23" s="4" customFormat="1">
-      <c r="A138" s="110"/>
-      <c r="B138" s="110"/>
-      <c r="C138" s="110"/>
-      <c r="D138" s="119"/>
-      <c r="E138" s="118"/>
+      <c r="A138" s="115"/>
+      <c r="B138" s="115"/>
+      <c r="C138" s="115"/>
+      <c r="D138" s="117"/>
+      <c r="E138" s="116"/>
       <c r="F138" s="10">
         <v>12</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H138" s="110"/>
-      <c r="I138" s="110"/>
-      <c r="J138" s="95"/>
-      <c r="K138" s="110"/>
-      <c r="L138" s="110"/>
-      <c r="M138" s="110"/>
+      <c r="H138" s="115"/>
+      <c r="I138" s="115"/>
+      <c r="J138" s="100"/>
+      <c r="K138" s="115"/>
+      <c r="L138" s="115"/>
+      <c r="M138" s="115"/>
       <c r="N138" s="9" t="s">
         <v>143</v>
       </c>
@@ -12405,23 +12568,23 @@
       <c r="W138" s="27"/>
     </row>
     <row r="139" spans="1:23" s="4" customFormat="1">
-      <c r="A139" s="110"/>
-      <c r="B139" s="110"/>
-      <c r="C139" s="110"/>
-      <c r="D139" s="119"/>
-      <c r="E139" s="118"/>
+      <c r="A139" s="115"/>
+      <c r="B139" s="115"/>
+      <c r="C139" s="115"/>
+      <c r="D139" s="117"/>
+      <c r="E139" s="116"/>
       <c r="F139" s="10">
         <v>13</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H139" s="110"/>
-      <c r="I139" s="110"/>
-      <c r="J139" s="95"/>
-      <c r="K139" s="110"/>
-      <c r="L139" s="110"/>
-      <c r="M139" s="110"/>
+      <c r="H139" s="115"/>
+      <c r="I139" s="115"/>
+      <c r="J139" s="100"/>
+      <c r="K139" s="115"/>
+      <c r="L139" s="115"/>
+      <c r="M139" s="115"/>
       <c r="N139" s="9" t="s">
         <v>144</v>
       </c>
@@ -12446,23 +12609,23 @@
       <c r="W139" s="27"/>
     </row>
     <row r="140" spans="1:23" s="58" customFormat="1">
-      <c r="A140" s="110"/>
-      <c r="B140" s="110"/>
-      <c r="C140" s="110"/>
-      <c r="D140" s="119"/>
-      <c r="E140" s="118"/>
+      <c r="A140" s="115"/>
+      <c r="B140" s="115"/>
+      <c r="C140" s="115"/>
+      <c r="D140" s="117"/>
+      <c r="E140" s="116"/>
       <c r="F140" s="75">
         <v>14</v>
       </c>
       <c r="G140" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="H140" s="110"/>
-      <c r="I140" s="110"/>
-      <c r="J140" s="95"/>
-      <c r="K140" s="110"/>
-      <c r="L140" s="110"/>
-      <c r="M140" s="110"/>
+      <c r="H140" s="115"/>
+      <c r="I140" s="115"/>
+      <c r="J140" s="100"/>
+      <c r="K140" s="115"/>
+      <c r="L140" s="115"/>
+      <c r="M140" s="115"/>
       <c r="N140" s="74" t="s">
         <v>269</v>
       </c>
@@ -12483,23 +12646,23 @@
       </c>
     </row>
     <row r="141" spans="1:23" s="7" customFormat="1">
-      <c r="A141" s="110"/>
-      <c r="B141" s="110"/>
-      <c r="C141" s="110"/>
-      <c r="D141" s="119"/>
-      <c r="E141" s="118"/>
+      <c r="A141" s="115"/>
+      <c r="B141" s="115"/>
+      <c r="C141" s="115"/>
+      <c r="D141" s="117"/>
+      <c r="E141" s="116"/>
       <c r="F141" s="10">
         <v>15</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="H141" s="110"/>
-      <c r="I141" s="110"/>
-      <c r="J141" s="95"/>
-      <c r="K141" s="110"/>
-      <c r="L141" s="110"/>
-      <c r="M141" s="110"/>
+      <c r="H141" s="115"/>
+      <c r="I141" s="115"/>
+      <c r="J141" s="100"/>
+      <c r="K141" s="115"/>
+      <c r="L141" s="115"/>
+      <c r="M141" s="115"/>
       <c r="N141" s="9"/>
       <c r="O141" s="55" t="s">
         <v>51</v>
@@ -12522,15 +12685,15 @@
       <c r="W141" s="27"/>
     </row>
     <row r="142" spans="1:23">
-      <c r="A142" s="110"/>
+      <c r="A142" s="115"/>
       <c r="B142" s="109" t="s">
         <v>51</v>
       </c>
       <c r="C142" s="109"/>
-      <c r="D142" s="119" t="s">
+      <c r="D142" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="E142" s="118" t="s">
+      <c r="E142" s="116" t="s">
         <v>146</v>
       </c>
       <c r="F142" s="10">
@@ -12539,13 +12702,13 @@
       <c r="G142" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H142" s="120">
-        <v>1</v>
-      </c>
-      <c r="I142" s="120">
-        <v>1</v>
-      </c>
-      <c r="J142" s="118">
+      <c r="H142" s="118">
+        <v>1</v>
+      </c>
+      <c r="I142" s="118">
+        <v>1</v>
+      </c>
+      <c r="J142" s="116">
         <v>4</v>
       </c>
       <c r="K142" s="109" t="s">
@@ -12573,23 +12736,23 @@
       </c>
     </row>
     <row r="143" spans="1:23">
-      <c r="A143" s="110"/>
-      <c r="B143" s="110"/>
-      <c r="C143" s="110"/>
-      <c r="D143" s="119"/>
-      <c r="E143" s="118"/>
+      <c r="A143" s="115"/>
+      <c r="B143" s="115"/>
+      <c r="C143" s="115"/>
+      <c r="D143" s="117"/>
+      <c r="E143" s="116"/>
       <c r="F143" s="10">
         <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H143" s="120"/>
-      <c r="I143" s="120"/>
-      <c r="J143" s="118"/>
-      <c r="K143" s="110"/>
-      <c r="L143" s="110"/>
-      <c r="M143" s="110"/>
+      <c r="H143" s="118"/>
+      <c r="I143" s="118"/>
+      <c r="J143" s="116"/>
+      <c r="K143" s="115"/>
+      <c r="L143" s="115"/>
+      <c r="M143" s="115"/>
       <c r="N143" s="32"/>
       <c r="O143" s="55" t="s">
         <v>169</v>
@@ -12608,23 +12771,23 @@
       </c>
     </row>
     <row r="144" spans="1:23" s="7" customFormat="1">
-      <c r="A144" s="110"/>
-      <c r="B144" s="110"/>
-      <c r="C144" s="110"/>
-      <c r="D144" s="119"/>
-      <c r="E144" s="118"/>
+      <c r="A144" s="115"/>
+      <c r="B144" s="115"/>
+      <c r="C144" s="115"/>
+      <c r="D144" s="117"/>
+      <c r="E144" s="116"/>
       <c r="F144" s="10">
         <v>3</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H144" s="120"/>
-      <c r="I144" s="120"/>
-      <c r="J144" s="118"/>
-      <c r="K144" s="110"/>
-      <c r="L144" s="110"/>
-      <c r="M144" s="110"/>
+      <c r="H144" s="118"/>
+      <c r="I144" s="118"/>
+      <c r="J144" s="116"/>
+      <c r="K144" s="115"/>
+      <c r="L144" s="115"/>
+      <c r="M144" s="115"/>
       <c r="N144" s="32"/>
       <c r="O144" s="55" t="s">
         <v>169</v>
@@ -12647,23 +12810,23 @@
       <c r="W144" s="27"/>
     </row>
     <row r="145" spans="1:19">
-      <c r="A145" s="110"/>
-      <c r="B145" s="111"/>
-      <c r="C145" s="111"/>
-      <c r="D145" s="119"/>
-      <c r="E145" s="118"/>
+      <c r="A145" s="115"/>
+      <c r="B145" s="110"/>
+      <c r="C145" s="110"/>
+      <c r="D145" s="117"/>
+      <c r="E145" s="116"/>
       <c r="F145" s="10">
         <v>4</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="120"/>
-      <c r="I145" s="120"/>
-      <c r="J145" s="118"/>
-      <c r="K145" s="111"/>
-      <c r="L145" s="111"/>
-      <c r="M145" s="111"/>
+      <c r="H145" s="118"/>
+      <c r="I145" s="118"/>
+      <c r="J145" s="116"/>
+      <c r="K145" s="110"/>
+      <c r="L145" s="110"/>
+      <c r="M145" s="110"/>
       <c r="N145" s="30"/>
       <c r="O145" s="55" t="s">
         <v>169</v>
@@ -12682,15 +12845,15 @@
       </c>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="110"/>
+      <c r="A146" s="115"/>
       <c r="B146" s="109"/>
       <c r="C146" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="D146" s="94" t="s">
+      <c r="D146" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="E146" s="94" t="s">
+      <c r="E146" s="98" t="s">
         <v>189</v>
       </c>
       <c r="F146" s="1">
@@ -12733,24 +12896,24 @@
       </c>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="110"/>
-      <c r="B147" s="110"/>
-      <c r="C147" s="110"/>
-      <c r="D147" s="95"/>
-      <c r="E147" s="95"/>
+      <c r="A147" s="115"/>
+      <c r="B147" s="115"/>
+      <c r="C147" s="115"/>
+      <c r="D147" s="100"/>
+      <c r="E147" s="100"/>
       <c r="F147" s="1">
         <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H147" s="110"/>
-      <c r="I147" s="110"/>
-      <c r="J147" s="110"/>
-      <c r="K147" s="110"/>
-      <c r="L147" s="110"/>
-      <c r="M147" s="110"/>
-      <c r="N147" s="110"/>
+      <c r="H147" s="115"/>
+      <c r="I147" s="115"/>
+      <c r="J147" s="115"/>
+      <c r="K147" s="115"/>
+      <c r="L147" s="115"/>
+      <c r="M147" s="115"/>
+      <c r="N147" s="115"/>
       <c r="O147" s="55" t="s">
         <v>169</v>
       </c>
@@ -12768,24 +12931,24 @@
       </c>
     </row>
     <row r="148" spans="1:19">
-      <c r="A148" s="110"/>
-      <c r="B148" s="110"/>
-      <c r="C148" s="110"/>
-      <c r="D148" s="95"/>
-      <c r="E148" s="95"/>
+      <c r="A148" s="115"/>
+      <c r="B148" s="115"/>
+      <c r="C148" s="115"/>
+      <c r="D148" s="100"/>
+      <c r="E148" s="100"/>
       <c r="F148" s="1">
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H148" s="110"/>
-      <c r="I148" s="110"/>
-      <c r="J148" s="110"/>
-      <c r="K148" s="110"/>
-      <c r="L148" s="110"/>
-      <c r="M148" s="110"/>
-      <c r="N148" s="110"/>
+      <c r="H148" s="115"/>
+      <c r="I148" s="115"/>
+      <c r="J148" s="115"/>
+      <c r="K148" s="115"/>
+      <c r="L148" s="115"/>
+      <c r="M148" s="115"/>
+      <c r="N148" s="115"/>
       <c r="O148" s="55" t="s">
         <v>169</v>
       </c>
@@ -12803,24 +12966,24 @@
       </c>
     </row>
     <row r="149" spans="1:19">
-      <c r="A149" s="110"/>
-      <c r="B149" s="111"/>
-      <c r="C149" s="111"/>
-      <c r="D149" s="96"/>
-      <c r="E149" s="96"/>
+      <c r="A149" s="115"/>
+      <c r="B149" s="110"/>
+      <c r="C149" s="110"/>
+      <c r="D149" s="99"/>
+      <c r="E149" s="99"/>
       <c r="F149" s="1">
         <v>4</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H149" s="111"/>
-      <c r="I149" s="111"/>
-      <c r="J149" s="111"/>
-      <c r="K149" s="111"/>
-      <c r="L149" s="111"/>
-      <c r="M149" s="111"/>
-      <c r="N149" s="111"/>
+      <c r="H149" s="110"/>
+      <c r="I149" s="110"/>
+      <c r="J149" s="110"/>
+      <c r="K149" s="110"/>
+      <c r="L149" s="110"/>
+      <c r="M149" s="110"/>
+      <c r="N149" s="110"/>
       <c r="O149" s="55" t="s">
         <v>169</v>
       </c>
@@ -12838,7 +13001,7 @@
       </c>
     </row>
     <row r="150" spans="1:19">
-      <c r="A150" s="110"/>
+      <c r="A150" s="115"/>
       <c r="B150" s="109" t="s">
         <v>61</v>
       </c>
@@ -12887,24 +13050,24 @@
       </c>
     </row>
     <row r="151" spans="1:19">
-      <c r="A151" s="110"/>
-      <c r="B151" s="111"/>
-      <c r="C151" s="111"/>
-      <c r="D151" s="111"/>
-      <c r="E151" s="111"/>
+      <c r="A151" s="115"/>
+      <c r="B151" s="110"/>
+      <c r="C151" s="110"/>
+      <c r="D151" s="110"/>
+      <c r="E151" s="110"/>
       <c r="F151" s="1">
         <v>2</v>
       </c>
       <c r="G151" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H151" s="111"/>
-      <c r="I151" s="111"/>
-      <c r="J151" s="111"/>
-      <c r="K151" s="111"/>
-      <c r="L151" s="111"/>
-      <c r="M151" s="111"/>
-      <c r="N151" s="111"/>
+      <c r="H151" s="110"/>
+      <c r="I151" s="110"/>
+      <c r="J151" s="110"/>
+      <c r="K151" s="110"/>
+      <c r="L151" s="110"/>
+      <c r="M151" s="110"/>
+      <c r="N151" s="110"/>
       <c r="O151" s="53"/>
       <c r="P151" s="53"/>
       <c r="Q151" s="53"/>
@@ -12912,7 +13075,7 @@
       <c r="S151" s="53"/>
     </row>
     <row r="152" spans="1:19">
-      <c r="A152" s="110"/>
+      <c r="A152" s="115"/>
       <c r="B152" s="1" t="s">
         <v>61</v>
       </c>
@@ -12948,8 +13111,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="18.75">
-      <c r="A153" s="110"/>
+    <row r="153" spans="1:19" ht="19.5">
+      <c r="A153" s="115"/>
       <c r="B153" s="1" t="s">
         <v>61</v>
       </c>
@@ -12996,7 +13159,7 @@
       </c>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="110"/>
+      <c r="A154" s="115"/>
       <c r="B154" s="1" t="s">
         <v>61</v>
       </c>
@@ -13033,7 +13196,7 @@
       </c>
     </row>
     <row r="155" spans="1:19">
-      <c r="A155" s="110"/>
+      <c r="A155" s="115"/>
       <c r="B155" s="1" t="s">
         <v>61</v>
       </c>
@@ -13082,7 +13245,7 @@
       </c>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="111"/>
+      <c r="A156" s="110"/>
       <c r="B156" s="1" t="s">
         <v>61</v>
       </c>
@@ -13129,17 +13292,17 @@
       </c>
     </row>
     <row r="157" spans="1:19">
-      <c r="A157" s="100" t="s">
+      <c r="A157" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="B157" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C157" s="94"/>
-      <c r="D157" s="94" t="s">
+      <c r="B157" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" s="98"/>
+      <c r="D157" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="E157" s="94" t="s">
+      <c r="E157" s="98" t="s">
         <v>265</v>
       </c>
       <c r="F157" s="69">
@@ -13148,21 +13311,21 @@
       <c r="G157" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="H157" s="94"/>
-      <c r="I157" s="94">
-        <v>1</v>
-      </c>
-      <c r="J157" s="94">
+      <c r="H157" s="98"/>
+      <c r="I157" s="98">
+        <v>1</v>
+      </c>
+      <c r="J157" s="98">
         <v>2</v>
       </c>
-      <c r="K157" s="94" t="s">
+      <c r="K157" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L157" s="97"/>
-      <c r="M157" s="94" t="s">
+      <c r="L157" s="96"/>
+      <c r="M157" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="N157" s="94"/>
+      <c r="N157" s="98"/>
       <c r="O157" s="65" t="s">
         <v>51</v>
       </c>
@@ -13180,32 +13343,32 @@
       </c>
     </row>
     <row r="158" spans="1:19" s="58" customFormat="1">
-      <c r="A158" s="101"/>
-      <c r="B158" s="96"/>
-      <c r="C158" s="96"/>
-      <c r="D158" s="96"/>
-      <c r="E158" s="96"/>
+      <c r="A158" s="104"/>
+      <c r="B158" s="99"/>
+      <c r="C158" s="99"/>
+      <c r="D158" s="99"/>
+      <c r="E158" s="99"/>
       <c r="F158" s="69">
         <v>2</v>
       </c>
       <c r="G158" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="H158" s="96"/>
-      <c r="I158" s="96"/>
-      <c r="J158" s="96"/>
-      <c r="K158" s="96"/>
-      <c r="L158" s="99"/>
-      <c r="M158" s="96"/>
-      <c r="N158" s="96"/>
+      <c r="H158" s="99"/>
+      <c r="I158" s="99"/>
+      <c r="J158" s="99"/>
+      <c r="K158" s="99"/>
+      <c r="L158" s="97"/>
+      <c r="M158" s="99"/>
+      <c r="N158" s="99"/>
       <c r="O158" s="66"/>
       <c r="P158" s="66"/>
       <c r="Q158" s="66"/>
       <c r="R158" s="66"/>
       <c r="S158" s="66"/>
     </row>
-    <row r="159" spans="1:19" ht="18.75">
-      <c r="A159" s="101"/>
+    <row r="159" spans="1:19" ht="19.5">
+      <c r="A159" s="104"/>
       <c r="B159" s="69" t="s">
         <v>51</v>
       </c>
@@ -13251,8 +13414,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="18.75">
-      <c r="A160" s="101"/>
+    <row r="160" spans="1:19" ht="19.5">
+      <c r="A160" s="104"/>
       <c r="B160" s="69" t="s">
         <v>51</v>
       </c>
@@ -13298,8 +13461,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="18.75">
-      <c r="A161" s="101"/>
+    <row r="161" spans="1:19" ht="19.5">
+      <c r="A161" s="104"/>
       <c r="B161" s="69" t="s">
         <v>51</v>
       </c>
@@ -13345,8 +13508,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="18.75">
-      <c r="A162" s="101"/>
+    <row r="162" spans="1:19" ht="19.5">
+      <c r="A162" s="104"/>
       <c r="B162" s="69" t="s">
         <v>51</v>
       </c>
@@ -13392,8 +13555,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="18.75">
-      <c r="A163" s="101"/>
+    <row r="163" spans="1:19" ht="19.5">
+      <c r="A163" s="104"/>
       <c r="B163" s="69" t="s">
         <v>51</v>
       </c>
@@ -13440,7 +13603,7 @@
       </c>
     </row>
     <row r="164" spans="1:19">
-      <c r="A164" s="101"/>
+      <c r="A164" s="104"/>
       <c r="B164" s="69" t="s">
         <v>51</v>
       </c>
@@ -13489,7 +13652,7 @@
       </c>
     </row>
     <row r="165" spans="1:19">
-      <c r="A165" s="101"/>
+      <c r="A165" s="104"/>
       <c r="B165" s="69" t="s">
         <v>51</v>
       </c>
@@ -13538,15 +13701,15 @@
       </c>
     </row>
     <row r="166" spans="1:19">
-      <c r="A166" s="101"/>
-      <c r="B166" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C166" s="94"/>
-      <c r="D166" s="94" t="s">
+      <c r="A166" s="104"/>
+      <c r="B166" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" s="98"/>
+      <c r="D166" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="E166" s="94" t="s">
+      <c r="E166" s="98" t="s">
         <v>265</v>
       </c>
       <c r="F166" s="69">
@@ -13555,21 +13718,21 @@
       <c r="G166" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H166" s="94"/>
-      <c r="I166" s="94">
-        <v>1</v>
-      </c>
-      <c r="J166" s="94">
+      <c r="H166" s="98"/>
+      <c r="I166" s="98">
+        <v>1</v>
+      </c>
+      <c r="J166" s="98">
         <v>2</v>
       </c>
-      <c r="K166" s="94" t="s">
+      <c r="K166" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L166" s="97"/>
-      <c r="M166" s="94" t="s">
+      <c r="L166" s="96"/>
+      <c r="M166" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="N166" s="94"/>
+      <c r="N166" s="98"/>
       <c r="O166" s="65" t="s">
         <v>51</v>
       </c>
@@ -13587,24 +13750,24 @@
       </c>
     </row>
     <row r="167" spans="1:19" s="58" customFormat="1">
-      <c r="A167" s="101"/>
-      <c r="B167" s="96"/>
-      <c r="C167" s="96"/>
-      <c r="D167" s="96"/>
-      <c r="E167" s="96"/>
+      <c r="A167" s="104"/>
+      <c r="B167" s="99"/>
+      <c r="C167" s="99"/>
+      <c r="D167" s="99"/>
+      <c r="E167" s="99"/>
       <c r="F167" s="69">
         <v>2</v>
       </c>
       <c r="G167" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H167" s="96"/>
-      <c r="I167" s="96"/>
-      <c r="J167" s="96"/>
-      <c r="K167" s="96"/>
-      <c r="L167" s="99"/>
-      <c r="M167" s="96"/>
-      <c r="N167" s="96"/>
+      <c r="H167" s="99"/>
+      <c r="I167" s="99"/>
+      <c r="J167" s="99"/>
+      <c r="K167" s="99"/>
+      <c r="L167" s="97"/>
+      <c r="M167" s="99"/>
+      <c r="N167" s="99"/>
       <c r="O167" s="66"/>
       <c r="P167" s="66"/>
       <c r="Q167" s="66"/>
@@ -13612,7 +13775,7 @@
       <c r="S167" s="66"/>
     </row>
     <row r="168" spans="1:19">
-      <c r="A168" s="101"/>
+      <c r="A168" s="104"/>
       <c r="B168" s="69" t="s">
         <v>51</v>
       </c>
@@ -13661,7 +13824,7 @@
       </c>
     </row>
     <row r="169" spans="1:19">
-      <c r="A169" s="101"/>
+      <c r="A169" s="104"/>
       <c r="B169" s="69" t="s">
         <v>51</v>
       </c>
@@ -13710,15 +13873,15 @@
       </c>
     </row>
     <row r="170" spans="1:19">
-      <c r="A170" s="101"/>
-      <c r="B170" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C170" s="94"/>
-      <c r="D170" s="94" t="s">
+      <c r="A170" s="104"/>
+      <c r="B170" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="98"/>
+      <c r="D170" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="E170" s="94" t="s">
+      <c r="E170" s="98" t="s">
         <v>265</v>
       </c>
       <c r="F170" s="69">
@@ -13727,21 +13890,21 @@
       <c r="G170" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H170" s="94"/>
-      <c r="I170" s="94">
-        <v>1</v>
-      </c>
-      <c r="J170" s="94">
+      <c r="H170" s="98"/>
+      <c r="I170" s="98">
+        <v>1</v>
+      </c>
+      <c r="J170" s="98">
         <v>2</v>
       </c>
-      <c r="K170" s="94" t="s">
+      <c r="K170" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L170" s="97"/>
-      <c r="M170" s="94" t="s">
+      <c r="L170" s="96"/>
+      <c r="M170" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="N170" s="94"/>
+      <c r="N170" s="98"/>
       <c r="O170" s="65" t="s">
         <v>51</v>
       </c>
@@ -13759,24 +13922,24 @@
       </c>
     </row>
     <row r="171" spans="1:19" s="58" customFormat="1">
-      <c r="A171" s="101"/>
-      <c r="B171" s="96"/>
-      <c r="C171" s="96"/>
-      <c r="D171" s="96"/>
-      <c r="E171" s="96"/>
+      <c r="A171" s="104"/>
+      <c r="B171" s="99"/>
+      <c r="C171" s="99"/>
+      <c r="D171" s="99"/>
+      <c r="E171" s="99"/>
       <c r="F171" s="69">
         <v>2</v>
       </c>
       <c r="G171" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H171" s="96"/>
-      <c r="I171" s="96"/>
-      <c r="J171" s="96"/>
-      <c r="K171" s="96"/>
-      <c r="L171" s="99"/>
-      <c r="M171" s="96"/>
-      <c r="N171" s="96"/>
+      <c r="H171" s="99"/>
+      <c r="I171" s="99"/>
+      <c r="J171" s="99"/>
+      <c r="K171" s="99"/>
+      <c r="L171" s="97"/>
+      <c r="M171" s="99"/>
+      <c r="N171" s="99"/>
       <c r="O171" s="66"/>
       <c r="P171" s="66"/>
       <c r="Q171" s="66"/>
@@ -13784,7 +13947,7 @@
       <c r="S171" s="66"/>
     </row>
     <row r="172" spans="1:19">
-      <c r="A172" s="101"/>
+      <c r="A172" s="104"/>
       <c r="B172" s="69" t="s">
         <v>51</v>
       </c>
@@ -13831,7 +13994,7 @@
       </c>
     </row>
     <row r="173" spans="1:19">
-      <c r="A173" s="102"/>
+      <c r="A173" s="105"/>
       <c r="B173" s="69" t="s">
         <v>51</v>
       </c>
@@ -13879,23 +14042,248 @@
     </row>
   </sheetData>
   <mergeCells count="283">
-    <mergeCell ref="L170:L171"/>
-    <mergeCell ref="M170:M171"/>
-    <mergeCell ref="N170:N171"/>
-    <mergeCell ref="N166:N167"/>
-    <mergeCell ref="M166:M167"/>
-    <mergeCell ref="L166:L167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="J166:J167"/>
-    <mergeCell ref="K166:K167"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="L74:L77"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="L78:L81"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="I4:I11"/>
+    <mergeCell ref="J4:J11"/>
+    <mergeCell ref="K4:K11"/>
+    <mergeCell ref="L4:L11"/>
+    <mergeCell ref="M4:M11"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="H23:H28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="N4:N11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A115:A156"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="A22:A50"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A74:A97"/>
+    <mergeCell ref="A98:A114"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="L98:L100"/>
+    <mergeCell ref="M98:M100"/>
+    <mergeCell ref="N98:N100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J108:J111"/>
+    <mergeCell ref="K108:K111"/>
+    <mergeCell ref="L108:L111"/>
+    <mergeCell ref="M108:M111"/>
+    <mergeCell ref="N108:N111"/>
+    <mergeCell ref="J105:J107"/>
+    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="N105:N107"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="D115:D118"/>
+    <mergeCell ref="E115:E118"/>
+    <mergeCell ref="H115:H118"/>
+    <mergeCell ref="I119:I122"/>
+    <mergeCell ref="J119:J122"/>
+    <mergeCell ref="K119:K122"/>
+    <mergeCell ref="L119:L122"/>
+    <mergeCell ref="M119:M122"/>
+    <mergeCell ref="N119:N122"/>
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="K115:K118"/>
+    <mergeCell ref="L115:L118"/>
+    <mergeCell ref="M115:M118"/>
+    <mergeCell ref="N115:N118"/>
+    <mergeCell ref="I115:I118"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="E127:E141"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="C127:C141"/>
+    <mergeCell ref="D127:D141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="H127:H141"/>
+    <mergeCell ref="I127:I141"/>
+    <mergeCell ref="H142:H145"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="H146:H149"/>
+    <mergeCell ref="I146:I149"/>
+    <mergeCell ref="K127:K141"/>
+    <mergeCell ref="M127:M141"/>
+    <mergeCell ref="M142:M145"/>
+    <mergeCell ref="K142:K145"/>
+    <mergeCell ref="L127:L141"/>
+    <mergeCell ref="L142:L145"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:L151"/>
+    <mergeCell ref="M150:M151"/>
+    <mergeCell ref="J127:J141"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="M23:M28"/>
+    <mergeCell ref="L23:L28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="N23:N28"/>
+    <mergeCell ref="N150:N151"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="K146:K149"/>
+    <mergeCell ref="L146:L149"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="N123:N124"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="O20:O21"/>
@@ -13920,248 +14308,23 @@
     <mergeCell ref="C170:C171"/>
     <mergeCell ref="D170:D171"/>
     <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="M23:M28"/>
-    <mergeCell ref="L23:L28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="N23:N28"/>
-    <mergeCell ref="N150:N151"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="K146:K149"/>
-    <mergeCell ref="L146:L149"/>
-    <mergeCell ref="M146:M149"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="N123:N124"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="I146:I149"/>
-    <mergeCell ref="K127:K141"/>
-    <mergeCell ref="M127:M141"/>
-    <mergeCell ref="M142:M145"/>
-    <mergeCell ref="K142:K145"/>
-    <mergeCell ref="L127:L141"/>
-    <mergeCell ref="L142:L145"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:L151"/>
-    <mergeCell ref="M150:M151"/>
-    <mergeCell ref="J127:J141"/>
-    <mergeCell ref="J142:J145"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="H146:H149"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="E127:E141"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="C127:C141"/>
-    <mergeCell ref="D127:D141"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="H127:H141"/>
-    <mergeCell ref="I127:I141"/>
-    <mergeCell ref="H142:H145"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="I119:I122"/>
-    <mergeCell ref="J119:J122"/>
-    <mergeCell ref="K119:K122"/>
-    <mergeCell ref="L119:L122"/>
-    <mergeCell ref="M119:M122"/>
-    <mergeCell ref="N119:N122"/>
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="K115:K118"/>
-    <mergeCell ref="L115:L118"/>
-    <mergeCell ref="M115:M118"/>
-    <mergeCell ref="N115:N118"/>
-    <mergeCell ref="I115:I118"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="D119:D122"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="D115:D118"/>
-    <mergeCell ref="E115:E118"/>
-    <mergeCell ref="H115:H118"/>
-    <mergeCell ref="I108:I111"/>
-    <mergeCell ref="J108:J111"/>
-    <mergeCell ref="K108:K111"/>
-    <mergeCell ref="L108:L111"/>
-    <mergeCell ref="M108:M111"/>
-    <mergeCell ref="N108:N111"/>
-    <mergeCell ref="J105:J107"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="L105:L107"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="N105:N107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="M98:M100"/>
-    <mergeCell ref="N98:N100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="E108:E111"/>
-    <mergeCell ref="H108:H111"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="N4:N11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A115:A156"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="E4:E11"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="A22:A50"/>
-    <mergeCell ref="A51:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A97"/>
-    <mergeCell ref="A98:A114"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="L74:L77"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="K78:K81"/>
-    <mergeCell ref="L78:L81"/>
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="I4:I11"/>
-    <mergeCell ref="J4:J11"/>
-    <mergeCell ref="K4:K11"/>
-    <mergeCell ref="L4:L11"/>
-    <mergeCell ref="M4:M11"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I23:I28"/>
-    <mergeCell ref="H23:H28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="L170:L171"/>
+    <mergeCell ref="M170:M171"/>
+    <mergeCell ref="N170:N171"/>
+    <mergeCell ref="N166:N167"/>
+    <mergeCell ref="M166:M167"/>
+    <mergeCell ref="L166:L167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="J166:J167"/>
+    <mergeCell ref="K166:K167"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="K170:K171"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14181,20 +14344,20 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="14.0625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -14545,7 +14708,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="19" customFormat="1" ht="18.75">
+    <row r="9" spans="1:18" s="19" customFormat="1" ht="19.5">
       <c r="A9" s="47" t="s">
         <v>28</v>
       </c>
@@ -14591,7 +14754,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="19" customFormat="1" ht="18.75">
+    <row r="10" spans="1:18" s="19" customFormat="1" ht="19.5">
       <c r="A10" s="47" t="s">
         <v>28</v>
       </c>
@@ -14637,7 +14800,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="19" customFormat="1" ht="18.75">
+    <row r="11" spans="1:18" s="19" customFormat="1" ht="19.5">
       <c r="A11" s="47" t="s">
         <v>28</v>
       </c>
@@ -15135,7 +15298,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="18.75">
+    <row r="22" spans="1:18" ht="19.5">
       <c r="A22" s="29" t="s">
         <v>58</v>
       </c>
@@ -15183,7 +15346,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="18.75">
+    <row r="23" spans="1:18" ht="19.5">
       <c r="A23" s="36" t="s">
         <v>58</v>
       </c>
@@ -15229,7 +15392,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18.75">
+    <row r="24" spans="1:18" ht="19.5">
       <c r="A24" s="36" t="s">
         <v>58</v>
       </c>
@@ -15421,7 +15584,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18.75">
+    <row r="28" spans="1:18" ht="19.5">
       <c r="A28" s="36" t="s">
         <v>58</v>
       </c>
@@ -15565,7 +15728,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="18.75">
+    <row r="31" spans="1:18" ht="19.5">
       <c r="A31" s="36" t="s">
         <v>58</v>
       </c>
@@ -16113,7 +16276,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="18.75">
+    <row r="42" spans="1:18" ht="19.5">
       <c r="A42" s="29" t="s">
         <v>77</v>
       </c>
@@ -16257,7 +16420,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="18.75">
+    <row r="45" spans="1:18" ht="19.5">
       <c r="A45" s="29" t="s">
         <v>77</v>
       </c>
@@ -16817,7 +16980,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="18.75">
+    <row r="57" spans="1:18" ht="19.5">
       <c r="A57" s="36" t="s">
         <v>133</v>
       </c>
@@ -16863,7 +17026,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="18.75">
+    <row r="58" spans="1:18" ht="19.5">
       <c r="A58" s="36" t="s">
         <v>133</v>
       </c>
@@ -16911,7 +17074,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="18.75">
+    <row r="59" spans="1:18" ht="19.5">
       <c r="A59" s="36" t="s">
         <v>133</v>
       </c>
@@ -16957,7 +17120,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="18.75">
+    <row r="60" spans="1:18" ht="19.5">
       <c r="A60" s="36" t="s">
         <v>133</v>
       </c>
@@ -17003,7 +17166,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="18.75">
+    <row r="61" spans="1:18" ht="19.5">
       <c r="A61" s="36" t="s">
         <v>133</v>
       </c>
@@ -17049,7 +17212,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="18.75">
+    <row r="62" spans="1:18" ht="19.5">
       <c r="A62" s="36" t="s">
         <v>133</v>
       </c>
@@ -17095,7 +17258,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="18.75">
+    <row r="63" spans="1:18" ht="19.5">
       <c r="A63" s="36" t="s">
         <v>133</v>
       </c>
@@ -17141,7 +17304,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="18.75">
+    <row r="64" spans="1:18" ht="19.5">
       <c r="A64" s="36" t="s">
         <v>133</v>
       </c>
@@ -18097,7 +18260,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="18.75">
+    <row r="84" spans="1:18" ht="19.5">
       <c r="A84" s="29" t="s">
         <v>135</v>
       </c>
@@ -18325,7 +18488,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="18.75">
+    <row r="89" spans="1:18" ht="19.5">
       <c r="A89" s="68" t="s">
         <v>249</v>
       </c>
@@ -18373,7 +18536,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="18.75">
+    <row r="90" spans="1:18" ht="19.5">
       <c r="A90" s="68" t="s">
         <v>249</v>
       </c>
@@ -18421,7 +18584,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="18.75">
+    <row r="91" spans="1:18" ht="19.5">
       <c r="A91" s="68" t="s">
         <v>249</v>
       </c>
@@ -18469,7 +18632,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="18.75">
+    <row r="92" spans="1:18" ht="19.5">
       <c r="A92" s="68" t="s">
         <v>249</v>
       </c>
@@ -18517,7 +18680,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="18.75">
+    <row r="93" spans="1:18" ht="19.5">
       <c r="A93" s="68" t="s">
         <v>249</v>
       </c>
@@ -18974,22 +19137,22 @@
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -19001,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>166</v>
@@ -19058,7 +19221,7 @@
       <c r="K3" s="29"/>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="4" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A4" s="47" t="s">
         <v>28</v>
       </c>
@@ -19066,7 +19229,7 @@
         <v>223</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -19088,7 +19251,7 @@
       <c r="K4" s="36"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="5" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A5" s="47" t="s">
         <v>28</v>
       </c>
@@ -19096,7 +19259,7 @@
         <v>224</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -19118,7 +19281,7 @@
       <c r="K5" s="36"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A6" s="47" t="s">
         <v>28</v>
       </c>
@@ -19126,7 +19289,7 @@
         <v>237</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -19156,10 +19319,10 @@
         <v>241</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="62">
@@ -19178,7 +19341,7 @@
       <c r="K7" s="36"/>
       <c r="M7" s="38"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A8" s="68" t="s">
         <v>249</v>
       </c>
@@ -19186,7 +19349,7 @@
         <v>250</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -19208,7 +19371,7 @@
       <c r="K8" s="36"/>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A9" s="68" t="s">
         <v>249</v>
       </c>
@@ -19216,7 +19379,7 @@
         <v>251</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -19238,7 +19401,7 @@
       <c r="K9" s="36"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="10" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A10" s="68" t="s">
         <v>249</v>
       </c>
@@ -19246,7 +19409,7 @@
         <v>252</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -19268,7 +19431,7 @@
       <c r="K10" s="36"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="11" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A11" s="68" t="s">
         <v>249</v>
       </c>
@@ -19276,7 +19439,7 @@
         <v>253</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -19298,7 +19461,7 @@
       <c r="K11" s="36"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="12" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A12" s="68" t="s">
         <v>249</v>
       </c>
@@ -19306,7 +19469,7 @@
         <v>257</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -19336,7 +19499,7 @@
         <v>258</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -19356,7 +19519,7 @@
         <v>38</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="M13" s="38"/>
     </row>
@@ -19368,7 +19531,7 @@
         <v>259</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -19388,7 +19551,7 @@
         <v>38</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="M14" s="38"/>
     </row>
@@ -19400,7 +19563,7 @@
         <v>254</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>285</v>
@@ -19430,7 +19593,7 @@
         <v>255</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -19450,7 +19613,7 @@
         <v>38</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="M16" s="38"/>
     </row>
@@ -19462,7 +19625,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -19482,7 +19645,7 @@
         <v>38</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="M17" s="38"/>
     </row>
@@ -19494,7 +19657,7 @@
         <v>260</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>285</v>
@@ -19524,7 +19687,7 @@
         <v>261</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -19544,7 +19707,7 @@
         <v>203</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="M19" s="38"/>
     </row>
@@ -19556,7 +19719,7 @@
         <v>262</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -19576,7 +19739,7 @@
         <v>203</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="M20" s="38"/>
     </row>
@@ -19590,27 +19753,27 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D522F8-64CF-4EEA-A5EC-3F34B1E07BF7}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:Q70"/>
+  <dimension ref="A2:Q75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="26.3125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="58" customWidth="1"/>
     <col min="2" max="2" width="26.25" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="40.8125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="7.8125" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5625" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9375" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.0625" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.58203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.08203125" style="58" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="58" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="60.25" style="58" customWidth="1"/>
     <col min="12" max="16384" width="9" style="58"/>
@@ -19624,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="D2" s="87" t="s">
         <v>166</v>
@@ -19715,7 +19878,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="19" customFormat="1" ht="18.75">
+    <row r="5" spans="1:17" s="19" customFormat="1" ht="19.5">
       <c r="A5" s="83" t="s">
         <v>28</v>
       </c>
@@ -19746,7 +19909,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="19" customFormat="1" ht="18.75">
+    <row r="6" spans="1:17" s="19" customFormat="1" ht="19.5">
       <c r="A6" s="83" t="s">
         <v>28</v>
       </c>
@@ -19777,7 +19940,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="19" customFormat="1" ht="18.75">
+    <row r="7" spans="1:17" s="19" customFormat="1" ht="19.5">
       <c r="A7" s="83" t="s">
         <v>28</v>
       </c>
@@ -19816,7 +19979,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
@@ -19839,7 +20002,7 @@
         <v>227</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="D9" s="87" t="s">
         <v>293</v>
@@ -19875,7 +20038,7 @@
         <v>207</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>294</v>
@@ -19905,13 +20068,13 @@
         <v>289</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
@@ -19930,7 +20093,7 @@
         <v>38</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -19938,13 +20101,13 @@
         <v>289</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
@@ -19963,7 +20126,7 @@
         <v>38</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -19971,13 +20134,13 @@
         <v>289</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="E13" s="35">
         <v>1</v>
@@ -19996,7 +20159,7 @@
         <v>38</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -20007,7 +20170,7 @@
         <v>186</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>298</v>
@@ -20029,10 +20192,10 @@
         <v>38</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="18.75">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19.5">
       <c r="A15" s="85" t="s">
         <v>289</v>
       </c>
@@ -20040,7 +20203,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="D15" s="87"/>
       <c r="E15" s="87"/>
@@ -20063,7 +20226,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.75">
+    <row r="16" spans="1:17" ht="19.5">
       <c r="A16" s="85" t="s">
         <v>289</v>
       </c>
@@ -20071,7 +20234,7 @@
         <v>202</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -20091,7 +20254,7 @@
         <v>76</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -20099,13 +20262,13 @@
         <v>289</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="87">
@@ -20122,7 +20285,7 @@
         <v>38</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -20130,13 +20293,13 @@
         <v>289</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="87">
@@ -20153,7 +20316,7 @@
         <v>38</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -20161,13 +20324,13 @@
         <v>289</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="87">
@@ -20184,7 +20347,7 @@
         <v>38</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -20192,13 +20355,13 @@
         <v>289</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="87">
@@ -20215,18 +20378,18 @@
         <v>38</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="18.75">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="19.5">
       <c r="A21" s="90" t="s">
         <v>289</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
@@ -20246,18 +20409,18 @@
         <v>76</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="18.75">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="19.5">
       <c r="A22" s="85" t="s">
         <v>289</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -20277,18 +20440,18 @@
         <v>76</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="85" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="40"/>
@@ -20308,21 +20471,21 @@
         <v>38</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="85" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="87">
@@ -20337,21 +20500,21 @@
       <c r="I24" s="37"/>
       <c r="J24" s="36"/>
       <c r="K24" s="35" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="90" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="91">
@@ -20366,21 +20529,21 @@
       <c r="I25" s="37"/>
       <c r="J25" s="36"/>
       <c r="K25" s="35" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="90" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="91">
@@ -20395,21 +20558,21 @@
       <c r="I26" s="37"/>
       <c r="J26" s="36"/>
       <c r="K26" s="35" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="90" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="91">
@@ -20424,7 +20587,7 @@
       <c r="I27" s="37"/>
       <c r="J27" s="36"/>
       <c r="K27" s="35" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -20432,10 +20595,10 @@
         <v>289</v>
       </c>
       <c r="B28" s="87" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="D28" s="87"/>
       <c r="E28" s="87"/>
@@ -20453,10 +20616,10 @@
         <v>289</v>
       </c>
       <c r="B29" s="87" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -20482,10 +20645,10 @@
         <v>289</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C30" s="93" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="D30" s="87"/>
       <c r="E30" s="87"/>
@@ -20511,10 +20674,10 @@
         <v>289</v>
       </c>
       <c r="B31" s="87" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C31" s="93" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="D31" s="87"/>
       <c r="E31" s="87"/>
@@ -20534,261 +20697,255 @@
       <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="85" t="s">
-        <v>308</v>
+      <c r="A32" s="94" t="s">
+        <v>289</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
+        <v>528</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95">
+        <v>1</v>
+      </c>
+      <c r="G32" s="95">
+        <v>2</v>
+      </c>
+      <c r="H32" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="95"/>
+      <c r="J32" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="K32" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="85" t="s">
-        <v>308</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="19" customFormat="1">
+      <c r="A33" s="94" t="s">
+        <v>289</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E33" s="35">
+        <v>529</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35">
+        <v>0</v>
+      </c>
+      <c r="G33" s="35">
+        <v>15</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="37">
+        <v>3</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="19" customFormat="1">
+      <c r="A34" s="94" t="s">
+        <v>289</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35">
+        <v>0</v>
+      </c>
+      <c r="G34" s="35">
         <v>2</v>
       </c>
-      <c r="F33" s="35">
-        <v>1</v>
-      </c>
-      <c r="G33" s="35">
-        <v>14</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="35" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="18.75">
-      <c r="A34" s="85" t="s">
-        <v>308</v>
-      </c>
-      <c r="B34" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="87" t="s">
-        <v>307</v>
-      </c>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87">
-        <v>0</v>
-      </c>
-      <c r="G34" s="87">
-        <v>99</v>
-      </c>
-      <c r="H34" s="87" t="s">
+      <c r="H34" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="37">
+        <v>3</v>
+      </c>
+      <c r="J34" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="19" customFormat="1">
+      <c r="A35" s="94" t="s">
+        <v>289</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="35">
         <v>2</v>
       </c>
-      <c r="J34" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="87" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="85" t="s">
-        <v>308</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>415</v>
-      </c>
-      <c r="C35" s="87" t="s">
-        <v>416</v>
-      </c>
-      <c r="D35" s="87" t="s">
-        <v>418</v>
-      </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87">
-        <v>1</v>
-      </c>
-      <c r="G35" s="87">
-        <v>2</v>
-      </c>
-      <c r="H35" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="86"/>
+      <c r="H35" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="37">
+        <v>3</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="85" t="s">
-        <v>308</v>
-      </c>
-      <c r="B36" s="87" t="s">
-        <v>387</v>
-      </c>
-      <c r="C36" s="87" t="s">
-        <v>417</v>
-      </c>
-      <c r="D36" s="87" t="s">
-        <v>399</v>
-      </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87">
-        <v>1</v>
-      </c>
-      <c r="G36" s="87">
-        <v>2</v>
-      </c>
-      <c r="H36" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="87"/>
-      <c r="J36" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="K36" s="86" t="s">
-        <v>388</v>
+        <v>299</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="D37" s="35"/>
+        <v>488</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>298</v>
+      </c>
       <c r="E37" s="35">
-        <v>0.73799999999999999</v>
+        <v>2</v>
       </c>
       <c r="F37" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="35">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="37">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K37" s="40" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="K37" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="19.5">
       <c r="A38" s="85" t="s">
-        <v>308</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F38" s="35">
-        <v>0</v>
-      </c>
-      <c r="G38" s="35">
-        <v>1</v>
-      </c>
-      <c r="H38" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B38" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>489</v>
+      </c>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87">
+        <v>0</v>
+      </c>
+      <c r="G38" s="87">
+        <v>99</v>
+      </c>
+      <c r="H38" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="37">
-        <v>3</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" s="40" t="s">
-        <v>281</v>
+      <c r="I38" s="5">
+        <v>2</v>
+      </c>
+      <c r="J38" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="87" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="85" t="s">
-        <v>308</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F39" s="35">
-        <v>0</v>
-      </c>
-      <c r="G39" s="35">
-        <v>1</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="37">
-        <v>3</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="40" t="s">
-        <v>420</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B39" s="87" t="s">
+        <v>391</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>493</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>392</v>
+      </c>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87">
+        <v>1</v>
+      </c>
+      <c r="G39" s="87">
+        <v>2</v>
+      </c>
+      <c r="H39" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="86"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>391</v>
-      </c>
-      <c r="D40" s="89" t="s">
-        <v>398</v>
+        <v>490</v>
+      </c>
+      <c r="D40" s="87" t="s">
+        <v>376</v>
       </c>
       <c r="E40" s="87"/>
       <c r="F40" s="87">
@@ -20805,78 +20962,84 @@
         <v>38</v>
       </c>
       <c r="K40" s="86" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="85" t="s">
-        <v>308</v>
-      </c>
-      <c r="B41" s="87" t="s">
-        <v>390</v>
-      </c>
-      <c r="C41" s="87" t="s">
-        <v>392</v>
-      </c>
-      <c r="D41" s="89" t="s">
-        <v>456</v>
-      </c>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87">
-        <v>1</v>
-      </c>
-      <c r="G41" s="87">
-        <v>17</v>
-      </c>
-      <c r="H41" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="87"/>
-      <c r="J41" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F41" s="35">
+        <v>0</v>
+      </c>
+      <c r="G41" s="35">
+        <v>1</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="37">
+        <v>3</v>
+      </c>
+      <c r="J41" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="86" t="s">
-        <v>462</v>
+      <c r="K41" s="40" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="85" t="s">
-        <v>308</v>
-      </c>
-      <c r="B42" s="87" t="s">
-        <v>400</v>
-      </c>
-      <c r="C42" s="87" t="s">
-        <v>401</v>
-      </c>
-      <c r="D42" s="87" t="s">
-        <v>402</v>
-      </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87">
-        <v>1</v>
-      </c>
-      <c r="G42" s="87">
+        <v>299</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F42" s="35">
+        <v>0</v>
+      </c>
+      <c r="G42" s="35">
+        <v>1</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="37">
         <v>3</v>
       </c>
-      <c r="H42" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="87"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="86" t="s">
-        <v>421</v>
+      <c r="J42" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="40" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>422</v>
+        <v>154</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35">
@@ -20898,21 +21061,21 @@
         <v>38</v>
       </c>
       <c r="K43" s="40" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B44" s="87" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="C44" s="87" t="s">
-        <v>427</v>
-      </c>
-      <c r="D44" s="87" t="s">
-        <v>398</v>
+        <v>495</v>
+      </c>
+      <c r="D44" s="89" t="s">
+        <v>375</v>
       </c>
       <c r="E44" s="87"/>
       <c r="F44" s="87">
@@ -20929,27 +21092,27 @@
         <v>38</v>
       </c>
       <c r="K44" s="86" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B45" s="87" t="s">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="C45" s="87" t="s">
-        <v>428</v>
+        <v>496</v>
       </c>
       <c r="D45" s="89" t="s">
-        <v>456</v>
-      </c>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89">
-        <v>1</v>
-      </c>
-      <c r="G45" s="89">
+        <v>419</v>
+      </c>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87">
+        <v>1</v>
+      </c>
+      <c r="G45" s="87">
         <v>17</v>
       </c>
       <c r="H45" s="87" t="s">
@@ -20960,21 +21123,21 @@
         <v>38</v>
       </c>
       <c r="K45" s="86" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B46" s="87" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="C46" s="87" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
       <c r="D46" s="87" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="E46" s="87"/>
       <c r="F46" s="87">
@@ -20989,18 +21152,18 @@
       <c r="I46" s="87"/>
       <c r="J46" s="85"/>
       <c r="K46" s="86" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35">
@@ -21021,22 +21184,22 @@
       <c r="J47" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="86" t="s">
-        <v>461</v>
+      <c r="K47" s="40" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B48" s="87" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="C48" s="87" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="D48" s="87" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="E48" s="87"/>
       <c r="F48" s="87">
@@ -21053,21 +21216,21 @@
         <v>38</v>
       </c>
       <c r="K48" s="86" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B49" s="87" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="D49" s="89" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="E49" s="89"/>
       <c r="F49" s="89">
@@ -21084,21 +21247,21 @@
         <v>38</v>
       </c>
       <c r="K49" s="86" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B50" s="87" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="C50" s="87" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="D50" s="87" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="E50" s="87"/>
       <c r="F50" s="87">
@@ -21113,54 +21276,54 @@
       <c r="I50" s="87"/>
       <c r="J50" s="85"/>
       <c r="K50" s="86" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="18.75">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>393</v>
+        <v>502</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35">
-        <v>4.6500000000000004</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="F51" s="35">
         <v>0</v>
       </c>
       <c r="G51" s="35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H51" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I51" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K51" s="35" t="s">
-        <v>280</v>
+        <v>38</v>
+      </c>
+      <c r="K51" s="86" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="85" t="s">
-        <v>359</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>453</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>444</v>
+        <v>299</v>
+      </c>
+      <c r="B52" s="87" t="s">
+        <v>401</v>
+      </c>
+      <c r="C52" s="87" t="s">
+        <v>504</v>
+      </c>
+      <c r="D52" s="87" t="s">
+        <v>375</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87">
@@ -21176,418 +21339,418 @@
       <c r="J52" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="K52" s="35" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="19" customFormat="1">
+      <c r="K52" s="86" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="85" t="s">
-        <v>308</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35">
-        <v>0</v>
-      </c>
-      <c r="G53" s="35">
-        <v>15</v>
-      </c>
-      <c r="H53" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="37">
+        <v>299</v>
+      </c>
+      <c r="B53" s="87" t="s">
+        <v>402</v>
+      </c>
+      <c r="C53" s="87" t="s">
+        <v>503</v>
+      </c>
+      <c r="D53" s="89" t="s">
+        <v>419</v>
+      </c>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89">
+        <v>1</v>
+      </c>
+      <c r="G53" s="89">
+        <v>17</v>
+      </c>
+      <c r="H53" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="87"/>
+      <c r="J53" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" s="86" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" s="87" t="s">
+        <v>403</v>
+      </c>
+      <c r="C54" s="87" t="s">
+        <v>505</v>
+      </c>
+      <c r="D54" s="87" t="s">
+        <v>378</v>
+      </c>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87">
+        <v>1</v>
+      </c>
+      <c r="G54" s="87">
         <v>3</v>
       </c>
-      <c r="J53" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K53" s="35" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="19" customFormat="1">
-      <c r="A54" s="85" t="s">
-        <v>308</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35">
-        <v>0</v>
-      </c>
-      <c r="G54" s="35">
-        <v>2</v>
-      </c>
-      <c r="H54" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" s="37">
-        <v>3</v>
-      </c>
-      <c r="J54" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K54" s="35" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="19" customFormat="1">
+      <c r="H54" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="87"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="86" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="19.5">
       <c r="A55" s="85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>87</v>
+        <v>371</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>303</v>
+        <v>506</v>
       </c>
       <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
+      <c r="E55" s="35">
+        <v>4.6500000000000004</v>
+      </c>
       <c r="F55" s="35">
         <v>0</v>
       </c>
       <c r="G55" s="35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H55" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I55" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" s="35" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="K55" s="35" t="s">
-        <v>460</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="85" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
+        <v>507</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87">
+        <v>1</v>
+      </c>
+      <c r="G56" s="87">
+        <v>2</v>
+      </c>
+      <c r="H56" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="87"/>
+      <c r="J56" s="85" t="s">
+        <v>38</v>
+      </c>
       <c r="K56" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="19" customFormat="1">
       <c r="A57" s="85" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E57" s="35">
+        <v>508</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35">
+        <v>0</v>
+      </c>
+      <c r="G57" s="35">
+        <v>15</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="37">
+        <v>3</v>
+      </c>
+      <c r="J57" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K57" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="19" customFormat="1">
+      <c r="A58" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35">
+        <v>0</v>
+      </c>
+      <c r="G58" s="35">
         <v>2</v>
       </c>
-      <c r="F57" s="35">
-        <v>1</v>
-      </c>
-      <c r="G57" s="35">
-        <v>14</v>
-      </c>
-      <c r="H57" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K57" s="35" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="18.75">
-      <c r="A58" s="85" t="s">
-        <v>314</v>
-      </c>
-      <c r="B58" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="87" t="s">
-        <v>321</v>
-      </c>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87">
-        <v>0</v>
-      </c>
-      <c r="G58" s="87">
-        <v>99</v>
-      </c>
-      <c r="H58" s="87" t="s">
+      <c r="H58" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="37">
+        <v>3</v>
+      </c>
+      <c r="J58" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K58" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="19" customFormat="1">
+      <c r="A59" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35">
+        <v>0</v>
+      </c>
+      <c r="G59" s="35">
         <v>2</v>
-      </c>
-      <c r="J58" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="K58" s="87" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="18.75">
-      <c r="A59" s="85" t="s">
-        <v>314</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35">
-        <v>2.33</v>
-      </c>
-      <c r="F59" s="35">
-        <v>0</v>
-      </c>
-      <c r="G59" s="35">
-        <v>10</v>
       </c>
       <c r="H59" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I59" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" s="35" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>280</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="85" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>453</v>
+        <v>78</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87">
-        <v>1</v>
-      </c>
-      <c r="G60" s="87">
+        <v>511</v>
+      </c>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="85" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E61" s="35">
         <v>2</v>
       </c>
-      <c r="H60" s="87" t="s">
+      <c r="F61" s="35">
+        <v>1</v>
+      </c>
+      <c r="G61" s="35">
+        <v>14</v>
+      </c>
+      <c r="H61" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="87"/>
-      <c r="J60" s="85" t="s">
+      <c r="I61" s="35"/>
+      <c r="J61" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K60" s="35" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="19" customFormat="1">
-      <c r="A61" s="85" t="s">
-        <v>314</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35">
-        <v>0</v>
-      </c>
-      <c r="G61" s="35">
-        <v>15</v>
-      </c>
-      <c r="H61" s="35" t="s">
+      <c r="K61" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="19.5">
+      <c r="A62" s="85" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="87" t="s">
+        <v>513</v>
+      </c>
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87">
+        <v>0</v>
+      </c>
+      <c r="G62" s="87">
+        <v>99</v>
+      </c>
+      <c r="H62" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="I61" s="37">
-        <v>3</v>
-      </c>
-      <c r="J61" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K61" s="35" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="19" customFormat="1">
-      <c r="A62" s="85" t="s">
-        <v>314</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35">
-        <v>0</v>
-      </c>
-      <c r="G62" s="35">
+      <c r="I62" s="5">
         <v>2</v>
       </c>
-      <c r="H62" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I62" s="37">
-        <v>3</v>
-      </c>
-      <c r="J62" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K62" s="35" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="19" customFormat="1">
+      <c r="J62" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="87" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="19.5">
       <c r="A63" s="85" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>319</v>
+        <v>514</v>
       </c>
       <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
+      <c r="E63" s="35">
+        <v>2.33</v>
+      </c>
       <c r="F63" s="35">
         <v>0</v>
       </c>
       <c r="G63" s="35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H63" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I63" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" s="35" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="19" customFormat="1">
-      <c r="A64" s="88" t="s">
-        <v>442</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="85" t="s">
+        <v>301</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35">
-        <v>1</v>
-      </c>
-      <c r="G64" s="35">
+        <v>410</v>
+      </c>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87">
+        <v>1</v>
+      </c>
+      <c r="G64" s="87">
         <v>2</v>
       </c>
-      <c r="H64" s="35" t="s">
+      <c r="H64" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="37"/>
-      <c r="J64" s="35" t="s">
-        <v>449</v>
+      <c r="I64" s="87"/>
+      <c r="J64" s="85" t="s">
+        <v>38</v>
       </c>
       <c r="K64" s="35" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="19" customFormat="1">
       <c r="A65" s="85" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>309</v>
+        <v>516</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
-      <c r="F65" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>200</v>
+      <c r="F65" s="35">
+        <v>0</v>
+      </c>
+      <c r="G65" s="35">
+        <v>15</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="I65" s="37">
         <v>3</v>
       </c>
       <c r="J65" s="35" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="K65" s="35" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="19" customFormat="1">
       <c r="A66" s="85" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>310</v>
+        <v>517</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -21595,99 +21758,95 @@
         <v>0</v>
       </c>
       <c r="G66" s="35">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H66" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I66" s="37">
+        <v>3</v>
+      </c>
+      <c r="J66" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="19" customFormat="1">
+      <c r="A67" s="85" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35">
+        <v>0</v>
+      </c>
+      <c r="G67" s="35">
         <v>2</v>
       </c>
-      <c r="J66" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="K66" s="35" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E67" s="35">
+      <c r="H67" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="37">
+        <v>3</v>
+      </c>
+      <c r="J67" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K67" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="19" customFormat="1">
+      <c r="A68" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35">
+        <v>1</v>
+      </c>
+      <c r="G68" s="35">
         <v>2</v>
-      </c>
-      <c r="F67" s="35">
-        <v>1</v>
-      </c>
-      <c r="G67" s="35">
-        <v>14</v>
-      </c>
-      <c r="H67" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K67" s="35" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="87" t="s">
-        <v>290</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E68" s="35">
-        <v>2</v>
-      </c>
-      <c r="F68" s="35">
-        <v>1</v>
-      </c>
-      <c r="G68" s="35">
-        <v>14</v>
       </c>
       <c r="H68" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="35"/>
+      <c r="I68" s="37"/>
       <c r="J68" s="35" t="s">
-        <v>38</v>
+        <v>412</v>
       </c>
       <c r="K68" s="35" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="89" t="s">
-        <v>441</v>
+      <c r="A69" s="85" t="s">
+        <v>290</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C69" s="89" t="s">
-        <v>481</v>
-      </c>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
+      <c r="C69" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
       <c r="F69" s="35" t="s">
         <v>199</v>
       </c>
@@ -21703,20 +21862,22 @@
       <c r="J69" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="K69" s="89"/>
+      <c r="K69" s="35" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="89" t="s">
-        <v>441</v>
+      <c r="A70" s="85" t="s">
+        <v>290</v>
       </c>
       <c r="B70" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89"/>
+      <c r="C70" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
       <c r="F70" s="35">
         <v>0</v>
       </c>
@@ -21732,7 +21893,164 @@
       <c r="J70" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="K70" s="89"/>
+      <c r="K70" s="35" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E71" s="35">
+        <v>2</v>
+      </c>
+      <c r="F71" s="35">
+        <v>1</v>
+      </c>
+      <c r="G71" s="35">
+        <v>14</v>
+      </c>
+      <c r="H71" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K71" s="35" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E72" s="35">
+        <v>2</v>
+      </c>
+      <c r="F72" s="35">
+        <v>1</v>
+      </c>
+      <c r="G72" s="35">
+        <v>14</v>
+      </c>
+      <c r="H72" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K72" s="35" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="95" t="s">
+        <v>407</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="C73" s="95" t="s">
+        <v>534</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35">
+        <v>1</v>
+      </c>
+      <c r="G73" s="35">
+        <v>2</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="37"/>
+      <c r="J73" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K73" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" s="89" t="s">
+        <v>524</v>
+      </c>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G74" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H74" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="I74" s="37">
+        <v>3</v>
+      </c>
+      <c r="J74" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K74" s="89"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="89" t="s">
+        <v>525</v>
+      </c>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="35">
+        <v>0</v>
+      </c>
+      <c r="G75" s="35">
+        <v>10</v>
+      </c>
+      <c r="H75" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="37">
+        <v>2</v>
+      </c>
+      <c r="J75" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="K75" s="89"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -21753,20 +22071,20 @@
       <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="22.3125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -21875,7 +22193,7 @@
       </c>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="5" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A5" s="47" t="s">
         <v>28</v>
       </c>
@@ -21906,7 +22224,7 @@
       </c>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="6" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A6" s="47" t="s">
         <v>28</v>
       </c>
@@ -21937,7 +22255,7 @@
       </c>
       <c r="M6" s="36"/>
     </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="7" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A7" s="47" t="s">
         <v>28</v>
       </c>
@@ -22141,7 +22459,7 @@
       </c>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:19" ht="18.75">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="36" t="s">
         <v>58</v>
       </c>
@@ -22172,7 +22490,7 @@
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:19" ht="18.75">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="36" t="s">
         <v>58</v>
       </c>
@@ -22304,7 +22622,7 @@
       </c>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" ht="18.75">
+    <row r="19" spans="1:13" ht="19.5">
       <c r="A19" s="36" t="s">
         <v>58</v>
       </c>
@@ -22403,7 +22721,7 @@
       </c>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75">
+    <row r="22" spans="1:13" ht="19.5">
       <c r="A22" s="36" t="s">
         <v>58</v>
       </c>
@@ -22568,7 +22886,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75">
+    <row r="27" spans="1:13" ht="19.5">
       <c r="A27" s="29" t="s">
         <v>77</v>
       </c>
@@ -23051,7 +23369,7 @@
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
     </row>
-    <row r="42" spans="1:13" ht="18.75">
+    <row r="42" spans="1:13" ht="19.5">
       <c r="A42" s="26" t="s">
         <v>135</v>
       </c>
@@ -23138,7 +23456,7 @@
       </c>
       <c r="M44" s="36"/>
     </row>
-    <row r="45" spans="1:13" ht="18.75">
+    <row r="45" spans="1:13" ht="19.5">
       <c r="A45" s="68" t="s">
         <v>249</v>
       </c>
@@ -23171,7 +23489,7 @@
       </c>
       <c r="M45" s="36"/>
     </row>
-    <row r="46" spans="1:13" ht="18.75">
+    <row r="46" spans="1:13" ht="19.5">
       <c r="A46" s="68" t="s">
         <v>249</v>
       </c>
@@ -23204,7 +23522,7 @@
       </c>
       <c r="M46" s="36"/>
     </row>
-    <row r="47" spans="1:13" ht="18.75">
+    <row r="47" spans="1:13" ht="19.5">
       <c r="A47" s="68" t="s">
         <v>249</v>
       </c>
@@ -23237,7 +23555,7 @@
       </c>
       <c r="M47" s="36"/>
     </row>
-    <row r="48" spans="1:13" ht="18.75">
+    <row r="48" spans="1:13" ht="19.5">
       <c r="A48" s="68" t="s">
         <v>249</v>
       </c>
@@ -23270,7 +23588,7 @@
       </c>
       <c r="M48" s="36"/>
     </row>
-    <row r="49" spans="1:13" ht="18.75">
+    <row r="49" spans="1:13" ht="19.5">
       <c r="A49" s="68" t="s">
         <v>249</v>
       </c>
@@ -23594,20 +23912,20 @@
       <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="14.0625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -23716,7 +24034,7 @@
       </c>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="5" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A5" s="47" t="s">
         <v>28</v>
       </c>
@@ -23747,7 +24065,7 @@
       </c>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="6" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A6" s="47" t="s">
         <v>28</v>
       </c>
@@ -23778,7 +24096,7 @@
       </c>
       <c r="M6" s="36"/>
     </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="7" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A7" s="47" t="s">
         <v>28</v>
       </c>
@@ -23982,7 +24300,7 @@
       </c>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:19" ht="18.75">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="36" t="s">
         <v>58</v>
       </c>
@@ -24013,7 +24331,7 @@
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:19" ht="18.75">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="36" t="s">
         <v>58</v>
       </c>
@@ -24145,7 +24463,7 @@
       </c>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" ht="18.75">
+    <row r="19" spans="1:13" ht="19.5">
       <c r="A19" s="36" t="s">
         <v>58</v>
       </c>
@@ -24244,7 +24562,7 @@
       </c>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75">
+    <row r="22" spans="1:13" ht="19.5">
       <c r="A22" s="36" t="s">
         <v>58</v>
       </c>
@@ -24409,7 +24727,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75">
+    <row r="27" spans="1:13" ht="19.5">
       <c r="A27" s="29" t="s">
         <v>77</v>
       </c>
@@ -24869,7 +25187,7 @@
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
     </row>
-    <row r="41" spans="1:13" ht="18.75">
+    <row r="41" spans="1:13" ht="19.5">
       <c r="A41" s="26" t="s">
         <v>135</v>
       </c>
@@ -24956,7 +25274,7 @@
       </c>
       <c r="M43" s="36"/>
     </row>
-    <row r="44" spans="1:13" ht="18.75">
+    <row r="44" spans="1:13" ht="19.5">
       <c r="A44" s="68" t="s">
         <v>249</v>
       </c>
@@ -24989,7 +25307,7 @@
       </c>
       <c r="M44" s="36"/>
     </row>
-    <row r="45" spans="1:13" ht="18.75">
+    <row r="45" spans="1:13" ht="19.5">
       <c r="A45" s="68" t="s">
         <v>249</v>
       </c>
@@ -25022,7 +25340,7 @@
       </c>
       <c r="M45" s="36"/>
     </row>
-    <row r="46" spans="1:13" ht="18.75">
+    <row r="46" spans="1:13" ht="19.5">
       <c r="A46" s="68" t="s">
         <v>249</v>
       </c>
@@ -25055,7 +25373,7 @@
       </c>
       <c r="M46" s="36"/>
     </row>
-    <row r="47" spans="1:13" ht="18.75">
+    <row r="47" spans="1:13" ht="19.5">
       <c r="A47" s="68" t="s">
         <v>249</v>
       </c>
@@ -25088,7 +25406,7 @@
       </c>
       <c r="M47" s="36"/>
     </row>
-    <row r="48" spans="1:13" ht="18.75">
+    <row r="48" spans="1:13" ht="19.5">
       <c r="A48" s="68" t="s">
         <v>249</v>
       </c>
@@ -25412,20 +25730,20 @@
       <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="21.6875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.25" style="27" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -25534,7 +25852,7 @@
       </c>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="5" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A5" s="47" t="s">
         <v>28</v>
       </c>
@@ -25565,7 +25883,7 @@
       </c>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="6" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A6" s="47" t="s">
         <v>28</v>
       </c>
@@ -25596,7 +25914,7 @@
       </c>
       <c r="M6" s="36"/>
     </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="7" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A7" s="47" t="s">
         <v>28</v>
       </c>
@@ -25800,7 +26118,7 @@
       </c>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:19" ht="18.75">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="36" t="s">
         <v>58</v>
       </c>
@@ -25831,7 +26149,7 @@
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:19" ht="18.75">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="36" t="s">
         <v>58</v>
       </c>
@@ -25963,7 +26281,7 @@
       </c>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" ht="18.75">
+    <row r="19" spans="1:13" ht="19.5">
       <c r="A19" s="36" t="s">
         <v>58</v>
       </c>
@@ -26062,7 +26380,7 @@
       </c>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75">
+    <row r="22" spans="1:13" ht="19.5">
       <c r="A22" s="36" t="s">
         <v>58</v>
       </c>
@@ -26336,7 +26654,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.75">
+    <row r="30" spans="1:13" ht="19.5">
       <c r="A30" s="29" t="s">
         <v>77</v>
       </c>
@@ -26629,7 +26947,7 @@
       </c>
       <c r="M38" s="36"/>
     </row>
-    <row r="39" spans="1:13" ht="18.75">
+    <row r="39" spans="1:13" ht="19.5">
       <c r="A39" s="36" t="s">
         <v>133</v>
       </c>
@@ -26660,7 +26978,7 @@
       </c>
       <c r="M39" s="35"/>
     </row>
-    <row r="40" spans="1:13" ht="18.75">
+    <row r="40" spans="1:13" ht="19.5">
       <c r="A40" s="36" t="s">
         <v>133</v>
       </c>
@@ -26691,7 +27009,7 @@
       </c>
       <c r="M40" s="35"/>
     </row>
-    <row r="41" spans="1:13" ht="18.75">
+    <row r="41" spans="1:13" ht="19.5">
       <c r="A41" s="36" t="s">
         <v>133</v>
       </c>
@@ -26722,7 +27040,7 @@
       </c>
       <c r="M41" s="35"/>
     </row>
-    <row r="42" spans="1:13" ht="18.75">
+    <row r="42" spans="1:13" ht="19.5">
       <c r="A42" s="36" t="s">
         <v>133</v>
       </c>
@@ -27178,7 +27496,7 @@
       <c r="L55" s="26"/>
       <c r="M55" s="26"/>
     </row>
-    <row r="56" spans="1:13" ht="18.75">
+    <row r="56" spans="1:13" ht="19.5">
       <c r="A56" s="26" t="s">
         <v>135</v>
       </c>
@@ -27265,7 +27583,7 @@
       </c>
       <c r="M58" s="36"/>
     </row>
-    <row r="59" spans="1:13" ht="18.75">
+    <row r="59" spans="1:13" ht="19.5">
       <c r="A59" s="68" t="s">
         <v>249</v>
       </c>
@@ -27298,7 +27616,7 @@
       </c>
       <c r="M59" s="36"/>
     </row>
-    <row r="60" spans="1:13" ht="18.75">
+    <row r="60" spans="1:13" ht="19.5">
       <c r="A60" s="68" t="s">
         <v>249</v>
       </c>
@@ -27331,7 +27649,7 @@
       </c>
       <c r="M60" s="36"/>
     </row>
-    <row r="61" spans="1:13" ht="18.75">
+    <row r="61" spans="1:13" ht="19.5">
       <c r="A61" s="68" t="s">
         <v>249</v>
       </c>
@@ -27364,7 +27682,7 @@
       </c>
       <c r="M61" s="36"/>
     </row>
-    <row r="62" spans="1:13" ht="18.75">
+    <row r="62" spans="1:13" ht="19.5">
       <c r="A62" s="68" t="s">
         <v>249</v>
       </c>
@@ -27397,7 +27715,7 @@
       </c>
       <c r="M62" s="36"/>
     </row>
-    <row r="63" spans="1:13" ht="18.75">
+    <row r="63" spans="1:13" ht="19.5">
       <c r="A63" s="68" t="s">
         <v>249</v>
       </c>
